--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{885610C2-716A-4677-8831-4C5A23323ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A62E6602-E28F-41BB-905C-00D16B3DD370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -959,6 +950,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,29 +3581,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,23 +3619,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,15 +3644,15 @@
         <v>1233841000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,15 +3676,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3696,25 +3698,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3723,16 +3725,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3741,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3876,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>17875456.73</v>
@@ -4143,11 +4145,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7091104884942382E-2</v>
+        <v>3.9918809922833039E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4192,7 +4194,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4558,7 +4560,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4566,7 +4568,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4576,11 +4578,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4594,10 +4596,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4646,7 +4648,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4667,7 +4669,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4685,7 +4687,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4792,7 +4794,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4828,8 +4830,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4872,17 +4874,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.44</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4892,40 +4894,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>11647.45904</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>18236.169650528907</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4948,11 +4950,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4972,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5015,7 +5017,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5105,7 +5107,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5155,12 +5157,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.3833074991227255E-2</v>
+        <v>5.5830123702291387E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5187,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7091104884942382E-2</v>
+        <v>3.9918809922833039E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5204,12 +5206,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5217,22 +5219,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.1432977225922416</v>
+        <v>4.2115931230083934</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.8863470999370531</v>
+        <v>8.0954425941307413</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.0509384971673432</v>
-      </c>
-      <c r="G29" s="271">
+        <v>4.9548154388334043</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.596823565162655</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>7.0395152992441234</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5280,7 +5282,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5290,7 +5292,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5317,7 +5319,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6263,12 +6265,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6754,7 +6753,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6805,7 +6804,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6856,7 +6855,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6907,7 +6906,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7009,7 +7008,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7162,7 +7161,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8233,7 +8232,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8302,7 +8301,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8506,7 +8505,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11456,11 +11455,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11471,11 +11470,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11487,11 +11486,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11705,19 +11704,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11727,18 +11726,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11815,7 +11814,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11875,7 +11874,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11938,7 +11937,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11968,7 +11967,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12105,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3833074991227255E-2</v>
+        <v>5.5830123702291387E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3833074991227255E-2</v>
+        <v>5.5830123702291387E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3833074991227255E-2</v>
+        <v>5.5830123702291387E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12156,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7091104884942382E-2</v>
+        <v>3.9918809922833039E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7091104884942382E-2</v>
+        <v>3.9918809922833039E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7091104884942382E-2</v>
+        <v>3.9918809922833039E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12197,15 +12196,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12226,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.264187789006243</v>
+        <v>15.037677373446805</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.264187789006243</v>
+        <v>15.037677373446805</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12251,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.17059863739798</v>
+        <v>9.9659036456335315</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.17059863739798</v>
+        <v>9.9659036456335315</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12284,7 +12283,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12301,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11817366340.246447</v>
+        <v>9224668300.3095322</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5777059931113051</v>
+        <v>7.4763833429992452</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5777059931113051</v>
+        <v>7.4763833429992452</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.607450913659774</v>
+        <v>10.622013186115506</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11817366340.246447</v>
+        <v>9224668300.3095322</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1410500941446085</v>
+        <v>6.3549258415493579</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5777059931113051</v>
+        <v>7.4763833429992452</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.5777059931113051</v>
+        <v>7.4763833429992452</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.5777059931113051</v>
+        <v>7.4763833429992452</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.607450913659774</v>
+        <v>10.622013186115506</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12408,7 +12407,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12425,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7465896006.283452</v>
+        <v>6113454435.8656464</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1432977225922416</v>
+        <v>4.2115931230083934</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0509384971673432</v>
+        <v>4.9548154388334043</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0509384971673432</v>
+        <v>4.9548154388334043</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0509384971673432</v>
+        <v>4.9548154388334043</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.596823565162655</v>
+        <v>7.0395152992441234</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12469,7 +12468,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12486,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9641631173.2649498</v>
+        <v>7669061368.0875883</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.6421739083684255</v>
+        <v>5.2832594822788757</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.8143222451393246</v>
+        <v>6.2155993909163243</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.8143222451393246</v>
+        <v>6.2155993909163243</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.8143222451393246</v>
+        <v>6.2155993909163243</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.102137239411213</v>
+        <v>8.8307642426798143</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A62E6602-E28F-41BB-905C-00D16B3DD370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDCBCA3-EDF8-4759-9B44-6F24AF7A93E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -934,6 +931,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>260</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>261</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>262</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>1233841000</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>263</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>264</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>265</v>
@@ -3704,16 +3708,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3731,7 +3735,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>266</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3878,7 +3882,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>17875456.73</v>
@@ -4126,7 +4130,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.4+0.19</f>
@@ -4145,11 +4149,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9918809922833039E-2</v>
+        <v>6.5302882243677529E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4194,13 +4198,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4542,7 +4546,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4560,7 +4564,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4568,7 +4572,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4578,16 +4582,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4596,10 +4600,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4648,7 +4652,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4669,7 +4673,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4687,7 +4691,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4744,7 +4748,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4831,7 +4835,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4872,19 +4876,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4892,42 +4896,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>18236.169650528907</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>11968.2577</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4950,16 +4954,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4974,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4984,40 +4988,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5030,29 +5034,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5062,12 +5066,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5077,7 +5081,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5085,7 +5089,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5099,7 +5103,7 @@
         <v>0.6223905170283478</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5107,7 +5111,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5118,14 +5122,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5137,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5153,16 +5157,16 @@
         <v>1.5061272402478966E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>5.5830123702291387E-2</v>
+        <v>259</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>10.949055201924116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5185,11 +5189,11 @@
         <v>0.11437878179622009</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.9918809922833039E-2</v>
+        <v>6.5302882243677529E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5206,12 +5210,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5219,42 +5223,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.2115931230083934</v>
+        <v>5.1011350558031658</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.0954425941307413</v>
+        <v>9.8053028398109436</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.9548154388334043</v>
-      </c>
-      <c r="G29" s="272">
+        <v>6.0013353597684302</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.0395152992441234</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>8.5263502954877772</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5264,7 +5268,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5275,14 +5279,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5292,7 +5296,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5302,14 +5306,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5319,7 +5323,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5334,14 +5338,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6326,16 +6330,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6353,7 +6357,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6386,7 +6390,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6753,7 +6757,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6804,7 +6808,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6855,7 +6859,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6906,7 +6910,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7008,7 +7012,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7161,7 +7165,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8232,7 +8236,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8301,7 +8305,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8505,7 +8509,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10403,7 +10407,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11455,11 +11459,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11470,11 +11474,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11486,11 +11490,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11704,19 +11708,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11726,18 +11730,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,7 +11818,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11874,7 +11878,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11937,7 +11941,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11967,7 +11971,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12100,28 +12104,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5830123702291387E-2</v>
+        <v>9.1332081312757149E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5830123702291387E-2</v>
+        <v>9.1332081312757149E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5830123702291387E-2</v>
+        <v>9.1332081312757149E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12151,21 +12155,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9918809922833039E-2</v>
+        <v>6.5302882243677529E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9918809922833039E-2</v>
+        <v>6.5302882243677529E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9918809922833039E-2</v>
+        <v>6.5302882243677529E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12196,15 +12200,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12221,24 +12225,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>15.037677373446805</v>
+        <v>19.047904415170404</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>15.037677373446805</v>
+        <v>19.047904415170404</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12246,18 +12250,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.9659036456335315</v>
+        <v>12.070829010468128</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>9.9659036456335315</v>
+        <v>12.070829010468128</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12276,14 +12280,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12300,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9224668300.3095322</v>
+        <v>11684690107.543753</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.4763833429992452</v>
+        <v>9.4701749314083035</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.4763833429992452</v>
+        <v>9.4701749314083035</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.622013186115506</v>
+        <v>13.454676998395541</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9224668300.3095322</v>
+        <v>11684690107.543753</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.3549258415493579</v>
+        <v>8.0496486916970582</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>7.4763833429992452</v>
+        <v>9.4701749314083035</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.4763833429992452</v>
+        <v>9.4701749314083035</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.4763833429992452</v>
+        <v>9.4701749314083035</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.622013186115506</v>
+        <v>13.454676998395541</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12400,14 +12404,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12424,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6113454435.8656464</v>
+        <v>7404693621.63204</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2115931230083934</v>
+        <v>5.1011350558031658</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9548154388334043</v>
+        <v>6.0013353597684302</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.9548154388334043</v>
+        <v>6.0013353597684302</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9548154388334043</v>
+        <v>6.0013353597684302</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.0395152992441234</v>
+        <v>8.5263502954877772</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12454,21 +12458,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12481,31 +12485,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7669061368.0875883</v>
+        <v>9544691864.5878963</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.2832594822788757</v>
+        <v>6.575391873750112</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.2155993909163243</v>
+        <v>7.7357551455883673</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.2155993909163243</v>
+        <v>7.7357551455883673</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.2155993909163243</v>
+        <v>7.7357551455883673</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.8307642426798143</v>
+        <v>10.990513646941659</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDCBCA3-EDF8-4759-9B44-6F24AF7A93E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9334B70-88B9-42D6-B028-459D05848666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45604</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>1233841000</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>11868490425.190001</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>7386835892.0799999</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>3020689977.3999996</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>19979888.16</v>
@@ -3882,7 +3883,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>17875456.73</v>
@@ -3902,7 +3903,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>49204300.670000002</v>
@@ -3922,7 +3923,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3954,7 +3955,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3970,7 +3971,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3986,7 +3987,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4018,7 +4019,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4034,7 +4035,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4050,7 +4051,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4082,7 +4083,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4098,7 +4099,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4114,7 +4115,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4130,7 +4131,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.4+0.19</f>
@@ -4149,11 +4150,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5302882243677529E-2</v>
+        <v>6.3977417859076499E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4198,21 +4199,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4222,7 +4223,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4232,7 +4233,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4243,7 +4244,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4253,7 +4254,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4263,7 +4264,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4274,7 +4275,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4284,7 +4285,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4295,7 +4296,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4303,24 +4304,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4331,7 +4332,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4342,7 +4343,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4353,7 +4354,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4364,7 +4365,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4375,7 +4376,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4386,7 +4387,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4396,31 +4397,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4428,12 +4429,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4444,7 +4445,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4455,7 +4456,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4465,7 +4466,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4476,7 +4477,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4486,85 +4487,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4572,15 +4573,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4588,10 +4589,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4601,19 +4602,19 @@
         <v>(Numbers in 1CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4631,7 +4632,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4652,7 +4653,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4673,7 +4674,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4691,7 +4692,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4712,7 +4713,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4730,7 +4731,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4748,7 +4749,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4876,7 +4877,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4888,15 +4889,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.6999999999999993</v>
+        <v>9.89</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4905,7 +4906,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4916,7 +4917,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4925,11 +4926,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>11968.2577</v>
+        <v>12202.68749</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4937,7 +4938,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4952,7 +4953,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4963,7 +4964,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4975,10 +4976,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4988,40 +4989,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5034,29 +5035,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5066,12 +5067,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5081,29 +5082,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.6223905170283478</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5111,7 +5112,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5122,26 +5123,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5150,30 +5151,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.949055201924116</v>
+        <v>11.17589434612259</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5182,61 +5183,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.11437878179622009</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5302882243677529E-2</v>
+        <v>6.3977417859076499E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.1011350558031658</v>
+        <v>5.063866868855385</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.8053028398109436</v>
+        <v>9.7336666538805279</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.0013353597684302</v>
+        <v>5.9574904339475117</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.5263502954877772</v>
+        <v>8.4640579598961114</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5244,21 +5245,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5268,7 +5269,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5279,14 +5280,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5296,7 +5297,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5306,14 +5307,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5323,7 +5324,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5338,14 +5339,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6325,21 +6326,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6350,14 +6351,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6379,7 +6380,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6390,7 +6391,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6401,7 +6402,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6451,7 +6452,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6502,7 +6503,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6553,7 +6554,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6604,7 +6605,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6655,7 +6656,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6706,7 +6707,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6757,7 +6758,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6808,7 +6809,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6859,7 +6860,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6910,7 +6911,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6961,7 +6962,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7012,7 +7013,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7063,7 +7064,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7114,7 +7115,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7165,7 +7166,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7216,7 +7217,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7267,7 +7268,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7318,7 +7319,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7369,7 +7370,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7420,7 +7421,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7471,7 +7472,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7522,7 +7523,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7573,7 +7574,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7624,7 +7625,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7675,7 +7676,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7726,7 +7727,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7777,7 +7778,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7828,7 +7829,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7879,7 +7880,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7930,7 +7931,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7981,7 +7982,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8032,7 +8033,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8083,7 +8084,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8134,7 +8135,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8185,7 +8186,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8236,7 +8237,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8254,7 +8255,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8305,7 +8306,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8356,7 +8357,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8407,7 +8408,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8458,7 +8459,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8509,7 +8510,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8560,7 +8561,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8611,7 +8612,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8629,7 +8630,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8680,7 +8681,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8731,7 +8732,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8748,7 +8749,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8798,7 +8799,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8848,7 +8849,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8898,7 +8899,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10257,7 +10258,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10267,12 +10268,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10286,7 +10287,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10296,7 +10297,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10314,10 +10315,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10327,7 +10328,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10341,7 +10342,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10352,7 +10353,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10364,7 +10365,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10382,7 +10383,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10401,32 +10402,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10443,7 +10444,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10454,7 +10455,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10471,7 +10472,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10482,7 +10483,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10499,7 +10500,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10510,7 +10511,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10527,7 +10528,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10538,7 +10539,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10555,7 +10556,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10565,7 +10566,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10587,7 +10588,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10609,7 +10610,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10630,7 +10631,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10655,7 +10656,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10682,7 +10683,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10703,7 +10704,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10720,7 +10721,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10732,13 +10733,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10760,7 +10761,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10789,7 +10790,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10809,7 +10810,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10822,7 +10823,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10842,7 +10843,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10872,7 +10873,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10888,7 +10889,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10897,7 +10898,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10913,7 +10914,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10923,7 +10924,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10940,7 +10941,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10950,7 +10951,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10967,7 +10968,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10977,7 +10978,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10997,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11007,7 +11008,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11024,7 +11025,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11034,7 +11035,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11060,7 +11061,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11087,7 +11088,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11114,7 +11115,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11135,7 +11136,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11156,7 +11157,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11177,7 +11178,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11198,7 +11199,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11215,7 +11216,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11233,7 +11234,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11252,7 +11253,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11271,7 +11272,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11288,7 +11289,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11301,7 +11302,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11318,7 +11319,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11331,7 +11332,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11348,7 +11349,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11358,7 +11359,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11375,7 +11376,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11391,14 +11392,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11410,12 +11411,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11445,7 +11446,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11456,7 +11457,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11471,7 +11472,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11482,12 +11483,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11511,11 +11512,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11525,7 +11526,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11546,7 +11547,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11567,7 +11568,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11588,7 +11589,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11603,7 +11604,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11634,11 +11635,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11648,7 +11649,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11669,7 +11670,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11684,7 +11685,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11706,7 +11707,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11714,15 +11715,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11731,22 +11732,22 @@
         <v>(Numbers in 1CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11767,7 +11768,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11797,7 +11798,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11818,7 +11819,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11848,7 +11849,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11878,7 +11879,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11909,7 +11910,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11936,12 +11937,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11971,7 +11972,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12001,7 +12002,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12031,7 +12032,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12052,7 +12053,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12083,7 +12084,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12104,28 +12105,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1332081312757149E-2</v>
+        <v>8.9478297577763349E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1332081312757149E-2</v>
+        <v>8.9478297577763349E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1332081312757149E-2</v>
+        <v>8.9478297577763349E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12155,21 +12156,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5302882243677529E-2</v>
+        <v>6.3977417859076499E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5302882243677529E-2</v>
+        <v>6.3977417859076499E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5302882243677529E-2</v>
+        <v>6.3977417859076499E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12186,27 +12187,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12225,24 +12226,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.047904415170404</v>
+        <v>18.865765214858772</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.047904415170404</v>
+        <v>18.865765214858772</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12250,18 +12251,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.070829010468128</v>
+        <v>11.982641203782817</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.070829010468128</v>
+        <v>11.982641203782817</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12280,51 +12281,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11684690107.543753</v>
+        <v>11572959175.589775</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.4701749314083035</v>
+        <v>9.3796195584275246</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.4701749314083035</v>
+        <v>9.3796195584275246</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.454676998395541</v>
+        <v>13.32602116017182</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12342,7 +12343,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12363,31 +12364,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11684690107.543753</v>
+        <v>11572959175.589775</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.0496486916970582</v>
+        <v>7.9726766246633956</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.4701749314083035</v>
+        <v>9.3796195584275246</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.4701749314083035</v>
+        <v>9.3796195584275246</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.4701749314083035</v>
+        <v>9.3796195584275246</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.454676998395541</v>
+        <v>13.32602116017182</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12397,58 +12398,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7404693621.63204</v>
+        <v>7350595954.5122318</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1011350558031658</v>
+        <v>5.063866868855385</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0013353597684302</v>
+        <v>5.9574904339475117</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0013353597684302</v>
+        <v>5.9574904339475117</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0013353597684302</v>
+        <v>5.9574904339475117</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.5263502954877772</v>
+        <v>8.4640579598961114</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12458,58 +12459,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9544691864.5878963</v>
+        <v>9461777565.0510044</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.575391873750112</v>
+        <v>6.5182717467593907</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.7357551455883673</v>
+        <v>7.6685549961875186</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.7357551455883673</v>
+        <v>7.6685549961875186</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.7357551455883673</v>
+        <v>7.6685549961875186</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.990513646941659</v>
+        <v>10.895039560033965</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12518,7 +12519,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9334B70-88B9-42D6-B028-459D05848666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{450D31D3-48A0-4723-85BC-71791E6828FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3977417859076499E-2</v>
+        <v>6.4170080395144671E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4799,7 +4799,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.89</v>
+        <v>9.86</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>12202.68749</v>
+        <v>12165.672259999999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.17589434612259</v>
+        <v>11.142340139328782</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3977417859076499E-2</v>
+        <v>6.4170080395144671E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.063866868855385</v>
+        <v>5.0682957318768143</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.7336666538805279</v>
+        <v>9.7421797284582627</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9574904339475117</v>
+        <v>5.9627008610315464</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.4640579598961114</v>
+        <v>8.4714606334419678</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9478297577763349E-2</v>
+        <v>8.9747753837663785E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9478297577763349E-2</v>
+        <v>8.9747753837663785E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9478297577763349E-2</v>
+        <v>8.9747753837663785E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3977417859076499E-2</v>
+        <v>6.4170080395144671E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3977417859076499E-2</v>
+        <v>6.4170080395144671E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3977417859076499E-2</v>
+        <v>6.4170080395144671E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>18.865765214858772</v>
+        <v>18.888519517856267</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>18.865765214858772</v>
+        <v>18.888519517856267</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>11.982641203782817</v>
+        <v>11.993121233748235</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>11.982641203782817</v>
+        <v>11.993121233748235</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11572959175.589775</v>
+        <v>11586917507.873674</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.3796195584275246</v>
+        <v>9.3909324685058078</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3796195584275246</v>
+        <v>9.3909324685058078</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.32602116017182</v>
+        <v>13.342093888724106</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11572959175.589775</v>
+        <v>11586917507.873674</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9726766246633956</v>
+        <v>7.982292598229936</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.3796195584275246</v>
+        <v>9.3909324685058078</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3796195584275246</v>
+        <v>9.3909324685058078</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.3796195584275246</v>
+        <v>9.3909324685058078</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.32602116017182</v>
+        <v>13.342093888724106</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7350595954.5122318</v>
+        <v>7357024793.0760241</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.063866868855385</v>
+        <v>5.0682957318768143</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9574904339475117</v>
+        <v>5.9627008610315464</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9574904339475117</v>
+        <v>5.9627008610315464</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9574904339475117</v>
+        <v>5.9627008610315464</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.4640579598961114</v>
+        <v>8.4714606334419678</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9461777565.0510044</v>
+        <v>9471971150.4748497</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.5182717467593907</v>
+        <v>6.5252941650533751</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.6685549961875186</v>
+        <v>7.6768166647686771</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6685549961875186</v>
+        <v>7.6768166647686771</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6685549961875186</v>
+        <v>7.6768166647686771</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.895039560033965</v>
+        <v>10.906777261083036</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450D31D3-48A0-4723-85BC-71791E6828FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EA2AEA-962D-4D2B-A520-14B6D38C5F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4170080395144671E-2</v>
+        <v>6.4046154097828642E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.86</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>12165.672259999999</v>
+        <v>12190.349080000002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.142340139328782</v>
+        <v>11.163900043687656</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4170080395144671E-2</v>
+        <v>6.4046154097828642E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0682957318768143</v>
+        <v>5.0658177309817845</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.7421797284582627</v>
+        <v>9.7374165632122356</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9627008610315464</v>
+        <v>5.9597855658609227</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.4714606334419678</v>
+        <v>8.4673187506193361</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9747753837663785E-2</v>
+        <v>8.9574431523634493E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9747753837663785E-2</v>
+        <v>8.9574431523634493E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9747753837663785E-2</v>
+        <v>8.9574431523634493E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4170080395144671E-2</v>
+        <v>6.4046154097828642E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4170080395144671E-2</v>
+        <v>6.4046154097828642E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4170080395144671E-2</v>
+        <v>6.4046154097828642E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>18.888519517856267</v>
+        <v>18.875263599705459</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>18.888519517856267</v>
+        <v>18.875263599705459</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>11.993121233748235</v>
+        <v>11.987257533853118</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>11.993121233748235</v>
+        <v>11.987257533853118</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11586917507.873674</v>
+        <v>11578785836.677351</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.3909324685058078</v>
+        <v>9.3843419343962076</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3909324685058078</v>
+        <v>9.3843419343962076</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.342093888724106</v>
+        <v>13.332730438911</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11586917507.873674</v>
+        <v>11578785836.677351</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.982292598229936</v>
+        <v>7.9766906442367764</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.3909324685058078</v>
+        <v>9.3843419343962076</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3909324685058078</v>
+        <v>9.3843419343962076</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.3909324685058078</v>
+        <v>9.3843419343962076</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.342093888724106</v>
+        <v>13.332730438911</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7357024793.0760241</v>
+        <v>7353427782.3674068</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0682957318768143</v>
+        <v>5.0658177309817845</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9627008610315464</v>
+        <v>5.9597855658609227</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9627008610315464</v>
+        <v>5.9597855658609227</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9627008610315464</v>
+        <v>5.9597855658609227</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.4714606334419678</v>
+        <v>8.4673187506193361</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9471971150.4748497</v>
+        <v>9466106809.5223789</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.5252941650533751</v>
+        <v>6.52125418760928</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.6768166647686771</v>
+        <v>7.6720637501285651</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6768166647686771</v>
+        <v>7.6720637501285651</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6768166647686771</v>
+        <v>7.6720637501285651</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.906777261083036</v>
+        <v>10.900024594765167</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EA2AEA-962D-4D2B-A520-14B6D38C5F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6EB9CD-A3AF-4B81-8FC2-F52D690D21A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4046154097828642E-2</v>
+        <v>6.4044163214211206E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.163900043687656</v>
+        <v>11.164247085862746</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4046154097828642E-2</v>
+        <v>6.4044163214211206E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0658177309817845</v>
+        <v>5.0656128689900441</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.7374165632122356</v>
+        <v>9.7370227814661341</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9597855658609227</v>
+        <v>5.9595445517529928</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.4673187506193361</v>
+        <v>8.4669763317096827</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9574431523634493E-2</v>
+        <v>8.9571647089958906E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9574431523634493E-2</v>
+        <v>8.9571647089958906E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9574431523634493E-2</v>
+        <v>8.9571647089958906E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4046154097828642E-2</v>
+        <v>6.4044163214211206E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4046154097828642E-2</v>
+        <v>6.4044163214211206E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4046154097828642E-2</v>
+        <v>6.4044163214211206E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>18.875263599705459</v>
+        <v>18.874435687286802</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>18.875263599705459</v>
+        <v>18.874435687286802</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>11.987257533853118</v>
+        <v>11.986772768394845</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>11.987257533853118</v>
+        <v>11.986772768394845</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11578785836.677351</v>
+        <v>11578277964.533657</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.3843419343962076</v>
+        <v>9.383930315602786</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3843419343962076</v>
+        <v>9.383930315602786</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.332730438911</v>
+        <v>13.332145634728176</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11578785836.677351</v>
+        <v>11578277964.533657</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9766906442367764</v>
+        <v>7.9763407682623679</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.3843419343962076</v>
+        <v>9.383930315602786</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3843419343962076</v>
+        <v>9.383930315602786</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.3843419343962076</v>
+        <v>9.383930315602786</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.332730438911</v>
+        <v>13.332145634728176</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7353427782.3674068</v>
+        <v>7353130409.2794647</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0658177309817845</v>
+        <v>5.0656128689900441</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9597855658609227</v>
+        <v>5.9595445517529928</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9597855658609227</v>
+        <v>5.9595445517529928</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9597855658609227</v>
+        <v>5.9595445517529928</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.4673187506193361</v>
+        <v>8.4669763317096827</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9466106809.5223789</v>
+        <v>9465704186.9065609</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.52125418760928</v>
+        <v>6.520976818626206</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.6720637501285651</v>
+        <v>7.6717374336778894</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6720637501285651</v>
+        <v>7.6717374336778894</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6720637501285651</v>
+        <v>7.6717374336778894</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.900024594765167</v>
+        <v>10.89956098321893</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6EB9CD-A3AF-4B81-8FC2-F52D690D21A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0E37B9-C299-4B8C-A60D-6A4B913D3CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4044163214211206E-2</v>
+        <v>6.4042172330593783E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4591,7 +4591,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.164247085862746</v>
+        <v>11.164594149614883</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4044163214211206E-2</v>
+        <v>6.4042172330593783E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0656128689900441</v>
+        <v>5.0654080102993309</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.7370227814661341</v>
+        <v>9.7366290060652023</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9595445517529928</v>
+        <v>5.9593035415286248</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.4669763317096827</v>
+        <v>8.4666339183175676</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9571647089958906E-2</v>
+        <v>8.9568862656283346E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9571647089958906E-2</v>
+        <v>8.9568862656283346E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9571647089958906E-2</v>
+        <v>8.9568862656283346E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4044163214211206E-2</v>
+        <v>6.4042172330593783E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4044163214211206E-2</v>
+        <v>6.4042172330593783E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4044163214211206E-2</v>
+        <v>6.4042172330593783E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>18.874435687286802</v>
+        <v>18.873607792327576</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>18.874435687286802</v>
+        <v>18.873607792327576</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>11.986772768394845</v>
+        <v>11.986288010747801</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>11.986772768394845</v>
+        <v>11.986288010747801</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11578277964.533657</v>
+        <v>11577770103.100225</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.383930315602786</v>
+        <v>9.3835187054897879</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.383930315602786</v>
+        <v>9.3835187054897879</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.332145634728176</v>
+        <v>13.331560842877998</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11578277964.533657</v>
+        <v>11577770103.100225</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9763407682623679</v>
+        <v>7.9759908996663196</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.383930315602786</v>
+        <v>9.3835187054897879</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.383930315602786</v>
+        <v>9.3835187054897879</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.383930315602786</v>
+        <v>9.3835187054897879</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.332145634728176</v>
+        <v>13.331560842877998</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7353130409.2794647</v>
+        <v>7352833040.9832201</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0656128689900441</v>
+        <v>5.0654080102993309</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9595445517529928</v>
+        <v>5.9593035415286248</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9595445517529928</v>
+        <v>5.9593035415286248</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9595445517529928</v>
+        <v>5.9593035415286248</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.4669763317096827</v>
+        <v>8.4666339183175676</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9465704186.9065609</v>
+        <v>9465301572.0417233</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.520976818626206</v>
+        <v>6.5206994549828252</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.6717374336778894</v>
+        <v>7.6714111235092064</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6717374336778894</v>
+        <v>7.6714111235092064</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6717374336778894</v>
+        <v>7.6714111235092064</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.89956098321893</v>
+        <v>10.899097380597784</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0E37B9-C299-4B8C-A60D-6A4B913D3CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1128969-C92A-4EB4-86BD-6DA8D7A5167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4042172330593783E-2</v>
+        <v>6.404018144697636E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,7 +5028,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5075,7 +5075,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.164594149614883</v>
+        <v>11.164941234946083</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4042172330593783E-2</v>
+        <v>6.404018144697636E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0654080102993309</v>
+        <v>5.2854293790361204</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.7366290060652023</v>
+        <v>10.302909019183284</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9593035415286248</v>
+        <v>6.2181522106307305</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.4666339183175676</v>
+        <v>8.9590513210289426</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9568862656283346E-2</v>
+        <v>8.9566078222607787E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9568862656283346E-2</v>
+        <v>8.9566078222607787E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9568862656283346E-2</v>
+        <v>8.9566078222607787E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4042172330593783E-2</v>
+        <v>6.404018144697636E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4042172330593783E-2</v>
+        <v>6.404018144697636E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4042172330593783E-2</v>
+        <v>6.404018144697636E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>18.873607792327576</v>
+        <v>19.693335563298263</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>18.873607792327576</v>
+        <v>19.693335563298263</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>11.986288010747801</v>
+        <v>12.50692514182113</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>11.986288010747801</v>
+        <v>12.50692514182113</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11577770103.100225</v>
+        <v>12080621480.741096</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.3835187054897879</v>
+        <v>9.7910682824943382</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3835187054897879</v>
+        <v>9.7910682824943382</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.331560842877998</v>
+        <v>14.106872951839152</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11577770103.100225</v>
+        <v>12080621480.741096</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9759908996663196</v>
+        <v>8.3224080401201874</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.3835187054897879</v>
+        <v>9.7910682824943382</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3835187054897879</v>
+        <v>9.7910682824943382</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.3835187054897879</v>
+        <v>9.7910682824943382</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.331560842877998</v>
+        <v>14.106872951839152</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7352833040.9832201</v>
+        <v>7672211141.7168312</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0654080102993309</v>
+        <v>5.2854293790361204</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9593035415286248</v>
+        <v>6.2181522106307305</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9593035415286248</v>
+        <v>6.2181522106307305</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9593035415286248</v>
+        <v>6.2181522106307305</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.4666339183175676</v>
+        <v>8.9590513210289426</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9465301572.0417233</v>
+        <v>9876416311.2289658</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.5206994549828252</v>
+        <v>6.8039187095781539</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.6714111235092064</v>
+        <v>8.0046102465625353</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6714111235092064</v>
+        <v>8.0046102465625353</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6714111235092064</v>
+        <v>8.0046102465625353</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.899097380597784</v>
+        <v>11.532962136434048</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1128969-C92A-4EB4-86BD-6DA8D7A5167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73B3C88-2E75-4EC4-94A3-76075F78A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45604</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>1233841000</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>266</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,394 +3809,394 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>11868490425.190001</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>10930302487.299999</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>7386835892.0799999</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>6956163862.6700001</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>3020689977.3999996</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>2613446855.2799997</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>19979888.16</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>14166706.34</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>17875456.73</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>20978186.489999998</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>49204300.670000002</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-5437935.0599999996</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.4+0.19</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.404018144697636E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>6.3595196091033424E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4201,10 +4205,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4303,7 +4307,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4315,7 +4319,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4335,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4403,7 +4407,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4415,7 +4419,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4428,7 +4432,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4476,14 +4480,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4567,7 +4571,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4575,19 +4579,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4601,14 +4606,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4620,12 +4625,12 @@
         <f>C25</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>11868490425.190001</v>
       </c>
@@ -4638,15 +4643,15 @@
         <f>C26</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>7386835892.0799999</v>
       </c>
@@ -4659,15 +4664,15 @@
         <f>C27+C28</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>3040669865.5599995</v>
       </c>
@@ -4680,12 +4685,12 @@
         <f>C29</f>
         <v>17875456.73</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>17875456.73</v>
       </c>
@@ -4698,15 +4703,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4719,12 +4724,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4737,12 +4742,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>65605734.226666667</v>
       </c>
@@ -4751,16 +4756,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.59000000000000008</v>
       </c>
@@ -4879,17 +4884,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.8800000000000008</v>
+        <v>9.94</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4899,40 +4904,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12190.349080000002</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>12264.37954</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4940,11 +4945,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4955,22 +4960,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0012</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4999,7 +5004,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5010,7 +5015,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5024,11 +5029,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5037,7 +5042,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5048,7 +5053,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5059,10 +5064,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5074,10 +5079,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5099,14 +5104,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.6223905170283478</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5114,7 +5119,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.25619685036829964</v>
       </c>
@@ -5125,7 +5130,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
@@ -5137,14 +5142,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5153,30 +5158,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.164941234946083</v>
+        <v>11.243064043819926</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.71500486253077544</v>
       </c>
@@ -5185,16 +5190,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.11437878179622009</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.404018144697636E-2</v>
+        <v>6.3595196091033424E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,10 +5218,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5224,22 +5229,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.2854293790361204</v>
+        <v>5.0499811633207887</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.302909019183284</v>
+        <v>9.7069758200912393</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2181522106307305</v>
-      </c>
-      <c r="G29" s="273">
+        <v>5.9411543097891633</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.9590513210289426</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>8.4408485392097745</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5251,17 +5256,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5271,7 +5276,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5279,17 +5284,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5299,24 +5304,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5326,7 +5331,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5345,10 +5350,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6330,16 +6335,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6353,11 +6358,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6390,7 +6395,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6454,47 +6459,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>10930302487.299999</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6556,47 +6561,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6956163862.6700001</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6607,47 +6612,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>3974138624.6299992</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6658,47 +6663,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3020689977.3999996</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2613446855.2799997</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6709,47 +6714,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>19979888.16</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>14166706.34</v>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6760,47 +6765,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6808,50 +6813,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.11588490903646796</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.12319193037654147</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6859,50 +6864,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1375378933.3233342</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1346525063.0099995</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6910,50 +6915,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>2.1428394543830654E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6964,47 +6969,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7015,47 +7020,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>17875456.73</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>20978186.489999998</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7066,47 +7071,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7117,47 +7122,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7168,47 +7173,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7219,47 +7224,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7270,47 +7275,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1357503476.5933342</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1325546876.5199995</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7321,47 +7326,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.5784086347165056E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>9.0954496322962861E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7372,7 +7377,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1018127607.4450006</v>
       </c>
@@ -7420,50 +7425,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>2.4108238372701971E-2</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7580,43 +7585,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7631,43 +7636,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7682,43 +7687,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7733,43 +7738,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7784,43 +7789,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7835,43 +7840,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7886,43 +7891,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7988,43 +7993,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8039,43 +8044,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8090,43 +8095,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8188,47 +8193,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8257,47 +8262,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.63641092007768485</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8308,47 +8313,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.24039714954577368</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8359,47 +8364,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8410,47 +8415,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.9192686125909793E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8461,47 +8466,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8512,47 +8517,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8563,47 +8568,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.11437878179622006</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.12127266176395049</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8632,47 +8637,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8683,47 +8688,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8751,47 +8756,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8801,47 +8806,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8851,47 +8856,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.316789020302077E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>1.5826061576241422E-2</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8901,47 +8906,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10239,8 +10244,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10289,7 +10294,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10433,7 +10438,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10461,7 +10466,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10489,7 +10494,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10517,7 +10522,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10530,7 +10535,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10545,7 +10550,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10572,7 +10577,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10594,7 +10599,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10616,7 +10621,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10637,7 +10642,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10662,7 +10667,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10689,7 +10694,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10710,7 +10715,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10875,7 +10880,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10904,7 +10909,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10930,7 +10935,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10957,7 +10962,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10984,7 +10989,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11000,7 +11005,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11014,7 +11019,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11041,7 +11046,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11067,7 +11072,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11094,7 +11099,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11121,7 +11126,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11142,7 +11147,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11163,7 +11168,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11184,7 +11189,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11205,7 +11210,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11351,7 +11356,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11460,11 +11465,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11475,11 +11480,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11491,11 +11496,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11591,8 +11596,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11672,8 +11677,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11709,19 +11714,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11731,18 +11736,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11753,17 +11758,17 @@
         <f>Data!C6</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11774,23 +11779,23 @@
         <f>Data!C8</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.6223905170283478</v>
       </c>
@@ -11800,21 +11805,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11825,23 +11830,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.25619685036829964</v>
       </c>
@@ -11855,54 +11860,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>5.5277235668845723E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.11588490903646799</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.11588490903646799</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.11588490903646799</v>
       </c>
@@ -11916,27 +11921,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11948,23 +11953,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>17875456.73</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>17875456.73</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>17875456.73</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>1.5061272402478966E-3</v>
       </c>
@@ -11978,23 +11983,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12004,27 +12009,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.11437878179622009</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.11437878179622009</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.11437878179622009</v>
       </c>
@@ -12034,49 +12039,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>8.578408634716507E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>8.578408634716507E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>8.578408634716507E-2</v>
       </c>
@@ -12086,69 +12091,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9566078222607787E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>8.8943725313890637E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9566078222607787E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>8.8943725313890637E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9566078222607787E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>8.8943725313890637E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.71500486253077544</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.71500486253077544</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.71500486253077544</v>
       </c>
@@ -12158,21 +12163,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.404018144697636E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>6.3595196091033424E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.404018144697636E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.3595196091033424E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.404018144697636E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.3595196091033424E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12194,22 +12199,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12219,9 +12224,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12229,15 +12234,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.693335563298263</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>18.801668329451672</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.693335563298263</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>18.801668329451672</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12245,24 +12250,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.50692514182113</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>11.949783423041032</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.50692514182113</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>11.949783423041032</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12283,14 +12291,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12305,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12080621480.741096</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>11533639771.915941</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7910682824943382</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>9.3477520781980346</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7910682824943382</v>
+        <v>9.3477520781980346</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.106872951839152</v>
+        <v>13.280745686767572</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12331,14 +12339,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12349,17 +12357,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12368,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12080621480.741096</v>
+        <v>11533639771.915941</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.3224080401201874</v>
+        <v>7.9455892664683292</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7910682824943382</v>
+        <v>9.3477520781980346</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7910682824943382</v>
+        <v>9.3477520781980346</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7910682824943382</v>
+        <v>9.3477520781980346</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>14.106872951839152</v>
+        <v>13.280745686767572</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12407,14 +12415,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12429,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7672211141.7168312</v>
+        <v>7330439774.7445707</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2854293790361204</v>
+        <v>5.0499811633207887</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2181522106307305</v>
+        <v>5.9411543097891633</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2181522106307305</v>
+        <v>5.9411543097891633</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2181522106307305</v>
+        <v>5.9411543097891633</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.9590513210289426</v>
+        <v>8.4408485392097745</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12468,14 +12476,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12490,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9876416311.2289658</v>
+        <v>9432039773.3302555</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8039187095781539</v>
+        <v>6.4977852148945594</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0046102465625353</v>
+        <v>7.6444531939935985</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0046102465625353</v>
+        <v>7.6444531939935985</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0046102465625353</v>
+        <v>7.6444531939935985</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.532962136434048</v>
+        <v>10.860797112988674</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73B3C88-2E75-4EC4-94A3-76075F78A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB360238-3E80-4B69-8B10-5EEE29A7764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>新华文轩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0012</t>
@@ -3580,7 +3583,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3633,7 +3636,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3645,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3661,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3693,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3710,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3728,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3737,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3746,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3755,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4158,7 +4161,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3595196091033424E-2</v>
+        <v>6.3588795442414539E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4580,9 +4583,11 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>268</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4894,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.94</v>
+        <v>9.92</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4935,7 +4940,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12264.37954</v>
+        <v>12239.702719999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4973,7 +4978,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4984,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5030,10 +5035,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5080,7 +5085,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.243064043819926</v>
+        <v>11.244195735367837</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5204,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3595196091033424E-2</v>
+        <v>6.3588795442414539E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,20 +5234,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0499811633207887</v>
+        <v>5.039161364483947</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.7069758200912393</v>
+        <v>8.8310672125614733</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9411543097891633</v>
+        <v>5.9284251346869965</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.4408485392097745</v>
+        <v>7.6791888804882378</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12114,17 +12119,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8943725313890637E-2</v>
+        <v>8.8934773418659852E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8943725313890637E-2</v>
+        <v>8.8934773418659852E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8943725313890637E-2</v>
+        <v>8.8934773418659852E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12165,17 +12170,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3595196091033424E-2</v>
+        <v>6.3588795442414539E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3595196091033424E-2</v>
+        <v>6.3588795442414539E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3595196091033424E-2</v>
+        <v>6.3588795442414539E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12224,7 +12229,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12235,14 +12240,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.801668329451672</v>
+        <v>18.76117832146603</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.801668329451672</v>
+        <v>18.76117832146603</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12256,21 +12261,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.949783423041032</v>
+        <v>11.924180505208342</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.949783423041032</v>
+        <v>11.924180505208342</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12318,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11533639771.915941</v>
+        <v>11508801701.25724</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.3477520781980346</v>
+        <v>9.3276213882155314</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3477520781980346</v>
+        <v>9.3276213882155314</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.280745686767572</v>
+        <v>12.082225012287473</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12381,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11533639771.915941</v>
+        <v>11508801701.25724</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9455892664683292</v>
+        <v>7.9284781799832018</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.3477520781980346</v>
+        <v>9.3276213882155314</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3477520781980346</v>
+        <v>9.3276213882155314</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.3477520781980346</v>
+        <v>9.3276213882155314</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.280745686767572</v>
+        <v>12.082225012287473</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12442,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7330439774.7445707</v>
+        <v>7314733996.6073389</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0499811633207887</v>
+        <v>5.039161364483947</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9411543097891633</v>
+        <v>5.9284251346869965</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9411543097891633</v>
+        <v>5.9284251346869965</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9411543097891633</v>
+        <v>5.9284251346869965</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.4408485392097745</v>
+        <v>7.6791888804882378</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12503,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9432039773.3302555</v>
+        <v>9411767848.9322891</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.4977852148945594</v>
+        <v>6.4838197722335744</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.6444531939935985</v>
+        <v>7.628023261451264</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6444531939935985</v>
+        <v>7.628023261451264</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6444531939935985</v>
+        <v>7.628023261451264</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.860797112988674</v>
+        <v>9.8807069463878552</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB360238-3E80-4B69-8B10-5EEE29A7764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FD060C-BF52-4DD3-9C12-46F29D62CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3588795442414539E-2</v>
+        <v>6.1088489417796134E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.92</v>
+        <v>10.34</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12239.702719999999</v>
+        <v>12757.915940000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4989,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.244195735367837</v>
+        <v>11.704412227984838</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3588795442414539E-2</v>
+        <v>6.1088489417796134E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,20 +5234,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.039161364483947</v>
+        <v>4.9869517839326436</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.8310672125614733</v>
+        <v>8.7395705761890401</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9284251346869965</v>
+        <v>5.8670020987442868</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.6791888804882378</v>
+        <v>7.5996265879904703</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12119,17 +12119,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8934773418659852E-2</v>
+        <v>8.5437865697265455E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8934773418659852E-2</v>
+        <v>8.5437865697265455E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8934773418659852E-2</v>
+        <v>8.5437865697265455E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12170,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3588795442414539E-2</v>
+        <v>6.1088489417796134E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3588795442414539E-2</v>
+        <v>6.1088489417796134E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3588795442414539E-2</v>
+        <v>6.1088489417796134E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12240,14 +12240,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.76117832146603</v>
+        <v>18.486865131284141</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.76117832146603</v>
+        <v>18.486865131284141</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12268,14 +12268,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.924180505208342</v>
+        <v>11.800636840386902</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.924180505208342</v>
+        <v>11.800636840386902</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12318,21 +12318,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11508801701.25724</v>
+        <v>11340527829.768555</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.3276213882155314</v>
+        <v>9.1912392518716395</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3276213882155314</v>
+        <v>9.1912392518716395</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.082225012287473</v>
+        <v>11.905566935122682</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12381,27 +12381,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11508801701.25724</v>
+        <v>11340527829.768555</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9284781799832018</v>
+        <v>7.8125533640908937</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.3276213882155314</v>
+        <v>9.1912392518716395</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3276213882155314</v>
+        <v>9.1912392518716395</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.3276213882155314</v>
+        <v>9.1912392518716395</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.082225012287473</v>
+        <v>11.905566935122682</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7314733996.6073389</v>
+        <v>7238947736.5167494</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.039161364483947</v>
+        <v>4.9869517839326436</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9284251346869965</v>
+        <v>5.8670020987442868</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9284251346869965</v>
+        <v>5.8670020987442868</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9284251346869965</v>
+        <v>5.8670020987442868</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.6791888804882378</v>
+        <v>7.5996265879904703</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9411767848.9322891</v>
+        <v>9289737783.1426525</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.4838197722335744</v>
+        <v>6.3997525740117691</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.628023261451264</v>
+        <v>7.5291206753079631</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.628023261451264</v>
+        <v>7.5291206753079631</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.628023261451264</v>
+        <v>7.5291206753079631</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8807069463878552</v>
+        <v>9.7525967615565765</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FD060C-BF52-4DD3-9C12-46F29D62CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1B44AE-D79B-4938-9596-62BADB9643BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,6 +935,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0811.HK</t>
   </si>
   <si>
@@ -948,9 +959,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>agree</t>
@@ -3583,7 +3591,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3604,7 +3612,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3612,7 +3620,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3645,7 +3653,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3661,7 +3669,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3693,7 +3701,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3710,7 +3718,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3728,7 +3736,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3737,7 +3745,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3746,7 +3754,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3755,7 +3763,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4161,7 +4169,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1088489417796134E-2</v>
+        <v>5.9171768163473873E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4282,7 +4290,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4394,7 +4402,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4583,7 +4591,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4899,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.34</v>
+        <v>10.68</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4940,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12757.915940000001</v>
+        <v>13177.42188</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4989,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5035,10 +5043,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5085,7 +5093,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5172,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.704412227984838</v>
+        <v>12.083547352437249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5212,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1088489417796134E-2</v>
+        <v>5.9171768163473873E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,20 +5242,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9869517839326436</v>
+        <v>5.8842637444429684</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.7395705761890401</v>
+        <v>10.872674604774151</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8670020987442868</v>
+        <v>6.9226632287564334</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.5996265879904703</v>
+        <v>9.4544996563253498</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12119,17 +12127,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5437865697265455E-2</v>
+        <v>8.2757154901064736E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5437865697265455E-2</v>
+        <v>8.2757154901064736E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5437865697265455E-2</v>
+        <v>8.2757154901064736E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12178,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1088489417796134E-2</v>
+        <v>5.9171768163473873E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1088489417796134E-2</v>
+        <v>5.9171768163473873E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1088489417796134E-2</v>
+        <v>5.9171768163473873E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12229,7 +12237,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12240,14 +12248,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.486865131284141</v>
+        <v>21.740861078621368</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.486865131284141</v>
+        <v>21.740861078621368</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12268,14 +12276,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.800636840386902</v>
+        <v>13.923948441801205</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.800636840386902</v>
+        <v>13.923948441801205</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12318,21 +12326,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11340527829.768555</v>
+        <v>13336649472.711956</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.1912392518716395</v>
+        <v>10.809050333642629</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.1912392518716395</v>
+        <v>10.809050333642629</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.905566935122682</v>
+        <v>14.762261182967514</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12381,27 +12389,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11340527829.768555</v>
+        <v>13336649472.711956</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.8125533640908937</v>
+        <v>9.1876927835962352</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.1912392518716395</v>
+        <v>10.809050333642629</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.1912392518716395</v>
+        <v>10.809050333642629</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.1912392518716395</v>
+        <v>10.809050333642629</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.905566935122682</v>
+        <v>14.762261182967514</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12442,27 +12450,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7238947736.5167494</v>
+        <v>8541465720.8320665</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9869517839326436</v>
+        <v>5.8842637444429684</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.8670020987442868</v>
+        <v>6.9226632287564334</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8670020987442868</v>
+        <v>6.9226632287564334</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.8670020987442868</v>
+        <v>6.9226632287564334</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.5996265879904703</v>
+        <v>9.4544996563253498</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12503,27 +12511,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9289737783.1426525</v>
+        <v>10939057596.772011</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.3997525740117691</v>
+        <v>7.5359782640196018</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.5291206753079631</v>
+        <v>8.8658567811995308</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.5291206753079631</v>
+        <v>8.8658567811995308</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.5291206753079631</v>
+        <v>8.8658567811995308</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.7525967615565765</v>
+        <v>12.108380419646432</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1B44AE-D79B-4938-9596-62BADB9643BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1070E2D3-88D9-406B-ADD5-2811E3F3FB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3590,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3612,7 +3616,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3620,7 +3624,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3653,7 +3657,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3669,7 +3673,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3718,7 +3722,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3736,7 +3740,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3745,7 +3749,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3754,7 +3758,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3763,7 +3767,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4169,7 +4173,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9171768163473873E-2</v>
+        <v>5.9238506190996021E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4591,7 +4595,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4907,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.68</v>
+        <v>10.66</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4948,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>13177.42188</v>
+        <v>13152.745059999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5018,7 +5022,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5029,7 +5033,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5056,7 +5060,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5180,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.083547352437249</v>
+        <v>12.069934042993355</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5212,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9171768163473873E-2</v>
+        <v>5.9238506190996021E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5242,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.8842637444429684</v>
+        <v>5.881721452224502</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.872674604774151</v>
+        <v>10.867977072977123</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.9226632287564334</v>
+        <v>6.9196722967347082</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.4544996563253498</v>
+        <v>9.4504148460670638</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5290,8 +5294,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6317,12 +6321,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8748,118 +8752,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8867,107 +8872,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.316789020302077E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>1.5826061576241422E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.316789020302077E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.5826061576241422E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9535,7 +9587,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10218,6 +10272,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12127,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2757154901064736E-2</v>
+        <v>8.285049416492081E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2757154901064736E-2</v>
+        <v>8.285049416492081E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2757154901064736E-2</v>
+        <v>8.285049416492081E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12178,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9171768163473873E-2</v>
+        <v>5.9238506190996021E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9171768163473873E-2</v>
+        <v>5.9238506190996021E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9171768163473873E-2</v>
+        <v>5.9238506190996021E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12248,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.740861078621368</v>
+        <v>21.733988277183304</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.740861078621368</v>
+        <v>21.733988277183304</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12276,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.923948441801205</v>
+        <v>13.917932609181983</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.923948441801205</v>
+        <v>13.917932609181983</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12326,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13336649472.711956</v>
+        <v>13332433441.739513</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.809050333642629</v>
+        <v>10.805633336661298</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.809050333642629</v>
+        <v>10.805633336661298</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.762261182967514</v>
+        <v>14.75759448234694</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12389,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13336649472.711956</v>
+        <v>13332433441.739513</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1876927835962352</v>
+        <v>9.1847883361621037</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>10.809050333642629</v>
+        <v>10.805633336661298</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.809050333642629</v>
+        <v>10.805633336661298</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.809050333642629</v>
+        <v>10.805633336661298</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>14.762261182967514</v>
+        <v>14.75759448234694</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12450,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8541465720.8320665</v>
+        <v>8537775386.2754488</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.8842637444429684</v>
+        <v>5.881721452224502</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.9226632287564334</v>
+        <v>6.9196722967347082</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.9226632287564334</v>
+        <v>6.9196722967347082</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.9226632287564334</v>
+        <v>6.9196722967347082</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.4544996563253498</v>
+        <v>9.4504148460670638</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12511,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10939057596.772011</v>
+        <v>10935104414.007481</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.5359782640196018</v>
+        <v>7.5332548941933029</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.8658567811995308</v>
+        <v>8.8626528166980023</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.8658567811995308</v>
+        <v>8.8626528166980023</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8658567811995308</v>
+        <v>8.8626528166980023</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>12.108380419646432</v>
+        <v>12.104004664207002</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1070E2D3-88D9-406B-ADD5-2811E3F3FB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4228481B-9E0B-4EBE-BC21-DF21E3B7C809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9238506190996021E-2</v>
+        <v>5.8884933183145763E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.66</v>
+        <v>10.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>13152.745059999999</v>
+        <v>13226.775519999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.069934042993355</v>
+        <v>12.142407639437153</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9238506190996021E-2</v>
+        <v>5.8884933183145763E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.881721452224502</v>
+        <v>5.8697170319090004</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.867977072977123</v>
+        <v>10.845795851744025</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.9196722967347082</v>
+        <v>6.9055494493047069</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.4504148460670638</v>
+        <v>9.4311268276035012</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10312,8 +10312,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12182,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.285049416492081E-2</v>
+        <v>8.2355989824630355E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.285049416492081E-2</v>
+        <v>8.2355989824630355E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.285049416492081E-2</v>
+        <v>8.2355989824630355E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9238506190996021E-2</v>
+        <v>5.8884933183145763E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9238506190996021E-2</v>
+        <v>5.8884933183145763E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9238506190996021E-2</v>
+        <v>5.8884933183145763E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12303,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.733988277183304</v>
+        <v>21.676303666972469</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.733988277183304</v>
+        <v>21.676303666972469</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.917932609181983</v>
+        <v>13.889526518495686</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.917932609181983</v>
+        <v>13.889526518495686</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13332433441.739513</v>
+        <v>13297047565.18339</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.805633336661298</v>
+        <v>10.776953890479721</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.805633336661298</v>
+        <v>10.776953890479721</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.75759448234694</v>
+        <v>14.718426057550401</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,7 +12404,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12443,28 +12443,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>13332433441.739513</v>
+        <f>C97+C98+$C$99</f>
+        <v>13297047565.18339</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1847883361621037</v>
+        <v>9.1604108069077625</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>10.805633336661298</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>10.776953890479721</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.805633336661298</v>
+        <v>10.776953890479721</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.805633336661298</v>
+        <v>10.776953890479721</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>14.75759448234694</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>14.718426057550401</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8537775386.2754488</v>
+        <v>8520350038.0795689</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.881721452224502</v>
+        <v>5.8697170319090004</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.9196722967347082</v>
+        <v>6.9055494493047069</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.9196722967347082</v>
+        <v>6.9055494493047069</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.9196722967347082</v>
+        <v>6.9055494493047069</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.4504148460670638</v>
+        <v>9.4311268276035012</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10935104414.007481</v>
+        <v>10908698801.631479</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.5332548941933029</v>
+        <v>7.5150639194083819</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.8626528166980023</v>
+        <v>8.8412516698922143</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.8626528166980023</v>
+        <v>8.8412516698922143</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8626528166980023</v>
+        <v>8.8412516698922143</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>12.104004664207002</v>
+        <v>12.074776442576951</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4228481B-9E0B-4EBE-BC21-DF21E3B7C809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CDCEE4-D242-408A-BE0B-A668EA435F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8884933183145763E-2</v>
+        <v>5.8904272703389035E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.142407639437153</v>
+        <v>12.138421029848956</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8884933183145763E-2</v>
+        <v>5.8904272703389035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.8697170319090004</v>
+        <v>5.8721810367181053</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.845795851744025</v>
+        <v>10.850348727630884</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.9055494493047069</v>
+        <v>6.908448278491889</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.4311268276035012</v>
+        <v>9.4350858501138131</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12182,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2355989824630355E-2</v>
+        <v>8.2383037920743751E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2355989824630355E-2</v>
+        <v>8.2383037920743751E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2355989824630355E-2</v>
+        <v>8.2383037920743751E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8884933183145763E-2</v>
+        <v>5.8904272703389035E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8884933183145763E-2</v>
+        <v>5.8904272703389035E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8884933183145763E-2</v>
+        <v>5.8904272703389035E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12303,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.676303666972469</v>
+        <v>21.686132274992762</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.676303666972469</v>
+        <v>21.686132274992762</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.889526518495686</v>
+        <v>13.895357099416659</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.889526518495686</v>
+        <v>13.895357099416659</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13297047565.18339</v>
+        <v>13303076797.397207</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.776953890479721</v>
+        <v>10.781840445727777</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.776953890479721</v>
+        <v>10.781840445727777</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.718426057550401</v>
+        <v>14.725099780276279</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13297047565.18339</v>
+        <v>13303076797.397207</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1604108069077625</v>
+        <v>9.1645643788686098</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.776953890479721</v>
+        <v>10.781840445727777</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.776953890479721</v>
+        <v>10.781840445727777</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.776953890479721</v>
+        <v>10.781840445727777</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.718426057550401</v>
+        <v>14.725099780276279</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8520350038.0795689</v>
+        <v>8523926732.3827105</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.8697170319090004</v>
+        <v>5.8721810367181053</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.9055494493047069</v>
+        <v>6.908448278491889</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.9055494493047069</v>
+        <v>6.908448278491889</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.9055494493047069</v>
+        <v>6.908448278491889</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.4311268276035012</v>
+        <v>9.4350858501138131</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10908698801.631479</v>
+        <v>10913501764.889959</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.5150639194083819</v>
+        <v>7.5183727077933575</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.8412516698922143</v>
+        <v>8.8451443621098331</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.8412516698922143</v>
+        <v>8.8451443621098331</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8412516698922143</v>
+        <v>8.8451443621098331</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>12.074776442576951</v>
+        <v>12.080092815195046</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CDCEE4-D242-408A-BE0B-A668EA435F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECC7075-93A6-4A08-BB4B-9D7456507EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8904272703389035E-2</v>
+        <v>5.8462483058741056E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.72</v>
+        <v>10.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>13226.775519999999</v>
+        <v>13325.4828</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5047,10 +5047,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5097,7 +5097,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.138421029848956</v>
+        <v>12.230148723111254</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8904272703389035E-2</v>
+        <v>5.8462483058741056E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.8721810367181053</v>
+        <v>5.3508428925204417</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.850348727630884</v>
+        <v>9.6281172152842078</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.908448278491889</v>
+        <v>6.2951092853181665</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.4350858501138131</v>
+        <v>8.372275839377572</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12182,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2383037920743751E-2</v>
+        <v>8.1765154507917367E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2383037920743751E-2</v>
+        <v>8.1765154507917367E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2383037920743751E-2</v>
+        <v>8.1765154507917367E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8904272703389035E-2</v>
+        <v>5.8462483058741056E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8904272703389035E-2</v>
+        <v>5.8462483058741056E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8904272703389035E-2</v>
+        <v>5.8462483058741056E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12303,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.686132274992762</v>
+        <v>19.745633622236959</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.686132274992762</v>
+        <v>19.745633622236959</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.895357099416659</v>
+        <v>12.661713307122678</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.895357099416659</v>
+        <v>12.661713307122678</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13303076797.397207</v>
+        <v>12112703047.227648</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.781840445727777</v>
+        <v>9.8170696606999179</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.781840445727777</v>
+        <v>9.8170696606999179</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.725099780276279</v>
+        <v>13.056360328081327</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13303076797.397207</v>
+        <v>12112703047.227648</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1645643788686098</v>
+        <v>8.3445092115949304</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.781840445727777</v>
+        <v>9.8170696606999179</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.781840445727777</v>
+        <v>9.8170696606999179</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.781840445727777</v>
+        <v>9.8170696606999179</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.725099780276279</v>
+        <v>13.056360328081327</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8523926732.3827105</v>
+        <v>7767163935.7062521</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.8721810367181053</v>
+        <v>5.3508428925204417</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.908448278491889</v>
+        <v>6.2951092853181665</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.908448278491889</v>
+        <v>6.2951092853181665</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.908448278491889</v>
+        <v>6.2951092853181665</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.4350858501138131</v>
+        <v>8.372275839377572</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10913501764.889959</v>
+        <v>9939933491.4669495</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.5183727077933575</v>
+        <v>6.847676052057686</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.8451443621098331</v>
+        <v>8.0560894730090418</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.8451443621098331</v>
+        <v>8.0560894730090418</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8451443621098331</v>
+        <v>8.0560894730090418</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>12.080092815195046</v>
+        <v>10.714318083729449</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECC7075-93A6-4A08-BB4B-9D7456507EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F5E54D-07C6-4B9E-859E-016D830F7F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4173,7 +4184,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8462483058741056E-2</v>
+        <v>5.6830979574908014E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4911,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -4952,7 +4963,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>13325.4828</v>
+        <v>13695.6351</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5001,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5184,7 +5195,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.230148723111254</v>
+        <v>12.581251772870441</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5227,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8462483058741056E-2</v>
+        <v>5.6830979574908014E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5257,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3508428925204417</v>
+        <v>5.3049297815807641</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.6281172152842078</v>
+        <v>9.5455027893470383</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2951092853181665</v>
+        <v>6.241093860683252</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.372275839377572</v>
+        <v>8.3004372081278603</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12182,17 +12193,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1765154507917367E-2</v>
+        <v>7.9483346971590541E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1765154507917367E-2</v>
+        <v>7.9483346971590541E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1765154507917367E-2</v>
+        <v>7.9483346971590541E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12244,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8462483058741056E-2</v>
+        <v>5.6830979574908014E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8462483058741056E-2</v>
+        <v>5.6830979574908014E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8462483058741056E-2</v>
+        <v>5.6830979574908014E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12303,14 +12314,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.745633622236959</v>
+        <v>19.520591686220023</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.745633622236959</v>
+        <v>19.520591686220023</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12342,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.661713307122678</v>
+        <v>12.553068994547379</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.661713307122678</v>
+        <v>12.553068994547379</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12392,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12112703047.227648</v>
+        <v>11974653988.063671</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.8170696606999179</v>
+        <v>9.7051840456458098</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.8170696606999179</v>
+        <v>9.7051840456458098</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.056360328081327</v>
+        <v>12.907556361504271</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12455,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12112703047.227648</v>
+        <v>11974653988.063671</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.3445092115949304</v>
+        <v>8.249406438798939</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8170696606999179</v>
+        <v>9.7051840456458098</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.8170696606999179</v>
+        <v>9.7051840456458098</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.8170696606999179</v>
+        <v>9.7051840456458098</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.056360328081327</v>
+        <v>12.907556361504271</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12516,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7767163935.7062521</v>
+        <v>7700517490.1592846</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3508428925204417</v>
+        <v>5.3049297815807641</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2951092853181665</v>
+        <v>6.241093860683252</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2951092853181665</v>
+        <v>6.241093860683252</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2951092853181665</v>
+        <v>6.241093860683252</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.372275839377572</v>
+        <v>8.3004372081278603</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12577,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9939933491.4669495</v>
+        <v>9837585739.1114788</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.847676052057686</v>
+        <v>6.7771681101898515</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0560894730090418</v>
+        <v>7.9731389531645309</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0560894730090418</v>
+        <v>7.9731389531645309</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0560894730090418</v>
+        <v>7.9731389531645309</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.714318083729449</v>
+        <v>10.603996784816065</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F5E54D-07C6-4B9E-859E-016D830F7F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B6FBB0-38E4-43BB-AD85-683FD7033D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -958,6 +937,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1549,7 +1564,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2189,6 +2204,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3605,7 +3630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3619,28 +3644,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45604</v>
@@ -3656,24 +3681,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>1233841000</v>
@@ -3681,10 +3706,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3705,7 +3730,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3713,15 +3738,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3730,61 +3755,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3853,7 +3878,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>7386835892.0799999</v>
@@ -3873,7 +3898,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>3020689977.3999996</v>
@@ -3893,7 +3918,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>19979888.16</v>
@@ -3913,7 +3938,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>17875456.73</v>
@@ -3933,7 +3958,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>49204300.670000002</v>
@@ -3953,7 +3978,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3969,7 +3994,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3985,7 +4010,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4017,7 +4042,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4033,7 +4058,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4065,7 +4090,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4113,7 +4138,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4129,7 +4154,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4145,7 +4170,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4161,7 +4186,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.4+0.19</f>
@@ -4180,11 +4205,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6830979574908014E-2</v>
+        <v>5.7455666042054591E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4229,21 +4254,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4253,7 +4278,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4263,7 +4288,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4274,7 +4299,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4284,7 +4309,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4294,7 +4319,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4305,7 +4330,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4315,7 +4340,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4326,7 +4351,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4334,24 +4359,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4362,7 +4387,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4373,7 +4398,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4384,7 +4409,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4395,7 +4420,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4406,7 +4431,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4417,7 +4442,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4427,31 +4452,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4459,12 +4484,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4475,7 +4500,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4486,7 +4511,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4496,7 +4521,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4507,7 +4532,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4517,25 +4542,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4547,55 +4572,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4603,10 +4628,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4614,18 +4639,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4634,20 +4659,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4665,7 +4690,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4686,7 +4711,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4707,7 +4732,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4725,7 +4750,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4746,7 +4771,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4764,7 +4789,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4782,7 +4807,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4910,62 +4935,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>11.1</v>
+        <v>10.98</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>13695.6351</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>13547.57418</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4988,16 +5013,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5012,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5022,40 +5047,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5068,29 +5093,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5100,12 +5125,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5115,29 +5140,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.6223905170283478</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5145,7 +5170,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5156,26 +5181,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5184,30 +5209,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.581251772870441</v>
+        <v>12.444462170318046</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5216,18 +5241,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.11437878179622009</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6830979574908014E-2</v>
+        <v>5.7455666042054591E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,62 +5262,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3049297815807641</v>
+        <v>5.3209586972656204</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.5455027893470383</v>
+        <v>9.5743446526100051</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.241093860683252</v>
-      </c>
-      <c r="G29" s="274">
+        <v>6.2599514085477885</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3004372081278603</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>8.3255170892260928</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5302,25 +5327,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5330,7 +5355,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5340,14 +5365,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5357,7 +5382,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5372,14 +5397,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6332,12 +6357,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6364,16 +6389,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6391,7 +6416,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6424,7 +6449,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6435,7 +6460,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6587,7 +6612,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6638,7 +6663,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6689,7 +6714,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6740,7 +6765,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6791,7 +6816,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6842,7 +6867,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6893,7 +6918,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6944,7 +6969,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6995,7 +7020,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7046,7 +7071,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7097,7 +7122,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7148,7 +7173,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7199,7 +7224,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7250,7 +7275,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7301,7 +7326,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7352,7 +7377,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7403,7 +7428,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7454,7 +7479,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7505,7 +7530,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7658,7 +7683,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7709,7 +7734,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7811,7 +7836,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8015,7 +8040,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8066,7 +8091,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8117,7 +8142,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8168,7 +8193,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8219,7 +8244,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8270,7 +8295,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8288,7 +8313,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8339,7 +8364,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8390,7 +8415,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8441,7 +8466,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8492,7 +8517,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8543,7 +8568,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8594,7 +8619,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8645,7 +8670,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8662,50 +8687,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8714,10 +8739,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8765,167 +8790,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8933,112 +8959,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.316789020302077E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.5826061576241422E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.316789020302077E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.5826061576241422E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9601,7 +9817,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10284,6 +10502,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10323,8 +10542,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10342,7 +10561,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10357,7 +10576,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10371,7 +10590,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10381,7 +10600,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10399,10 +10618,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10411,12 +10630,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10426,7 +10646,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10436,8 +10656,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10449,7 +10670,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10467,7 +10688,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10486,32 +10707,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10528,7 +10749,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10539,7 +10760,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10556,7 +10777,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10567,7 +10788,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10584,7 +10805,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10595,7 +10816,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10612,7 +10833,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10623,7 +10844,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10640,7 +10861,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10650,7 +10871,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10672,7 +10893,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10694,7 +10915,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10715,7 +10936,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10740,7 +10961,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10767,7 +10988,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10788,7 +11009,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10805,7 +11026,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10817,13 +11038,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10845,7 +11066,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10865,7 +11086,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10874,7 +11095,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10894,7 +11115,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10907,7 +11128,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10927,7 +11148,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10973,7 +11194,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10982,7 +11203,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10998,7 +11219,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11008,7 +11229,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11025,7 +11246,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11035,7 +11256,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11052,7 +11273,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11062,7 +11283,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11082,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11092,7 +11313,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11109,7 +11330,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11119,7 +11340,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11145,7 +11366,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11172,7 +11393,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11199,7 +11420,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11220,7 +11441,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11241,7 +11462,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11262,7 +11483,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11283,7 +11504,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11300,7 +11521,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11318,7 +11539,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11337,7 +11558,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11356,7 +11577,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11373,7 +11594,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11386,7 +11607,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11403,7 +11624,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11416,7 +11637,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11433,7 +11654,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11460,7 +11681,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11476,14 +11697,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11500,7 +11721,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11530,7 +11751,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11541,14 +11762,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11556,30 +11777,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11596,11 +11817,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11610,7 +11831,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11631,7 +11852,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11652,7 +11873,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11673,7 +11894,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11688,7 +11909,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11719,11 +11940,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11733,7 +11954,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11754,7 +11975,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11769,7 +11990,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11791,21 +12012,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11815,23 +12036,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11852,7 +12073,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11882,7 +12103,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11903,7 +12124,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11933,7 +12154,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11963,7 +12184,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11994,7 +12215,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12021,12 +12242,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12056,7 +12277,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12086,7 +12307,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12116,7 +12337,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12137,7 +12358,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12168,7 +12389,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12189,28 +12410,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9483346971590541E-2</v>
+        <v>8.0357028396546834E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9483346971590541E-2</v>
+        <v>8.0357028396546834E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9483346971590541E-2</v>
+        <v>8.0357028396546834E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12240,21 +12461,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6830979574908014E-2</v>
+        <v>5.7455666042054591E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6830979574908014E-2</v>
+        <v>5.7455666042054591E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6830979574908014E-2</v>
+        <v>5.7455666042054591E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12271,29 +12492,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12310,24 +12531,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.520591686220023</v>
+        <v>19.600937046958816</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.520591686220023</v>
+        <v>19.600937046958816</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12338,18 +12559,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.553068994547379</v>
+        <v>12.590998258983339</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.553068994547379</v>
+        <v>12.590998258983339</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12368,51 +12589,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11974653988.063671</v>
+        <v>12023940808.353672</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7051840456458098</v>
+        <v>9.7451298897942866</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7051840456458098</v>
+        <v>9.7451298897942866</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.907556361504271</v>
+        <v>12.960682941312477</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12430,7 +12651,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12451,31 +12672,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11974653988.063671</v>
+        <v>12023940808.353672</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.249406438798939</v>
+        <v>8.2833604063251443</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7051840456458098</v>
+        <v>9.7451298897942866</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7051840456458098</v>
+        <v>9.7451298897942866</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7051840456458098</v>
+        <v>9.7451298897942866</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.907556361504271</v>
+        <v>12.960682941312477</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12485,58 +12706,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7700517490.1592846</v>
+        <v>7723784705.874012</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3049297815807641</v>
+        <v>5.3209586972656204</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.241093860683252</v>
+        <v>6.2599514085477885</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.241093860683252</v>
+        <v>6.2599514085477885</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.241093860683252</v>
+        <v>6.2599514085477885</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3004372081278603</v>
+        <v>8.3255170892260928</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12546,58 +12767,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9837585739.1114788</v>
+        <v>9873862757.1138439</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.7771681101898515</v>
+        <v>6.8021595517953823</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9731389531645309</v>
+        <v>8.0025406491710385</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.9731389531645309</v>
+        <v>8.0025406491710385</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.9731389531645309</v>
+        <v>8.0025406491710385</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.603996784816065</v>
+        <v>10.643100015269285</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12606,7 +12827,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12615,6 +12836,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B6FBB0-38E4-43BB-AD85-683FD7033D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A16B603-A55F-49AD-8F7B-D9FA5381E467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -956,10 +922,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +935,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1300,7 +1298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1558,13 +1556,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2214,6 +2328,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2453,981 +2591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.6223905170283478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25619685036829964</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5277235668845723E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5061272402478966E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11437878179622009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3630,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3644,28 +2807,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45604</v>
@@ -3681,24 +2844,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1233841000</v>
@@ -3706,10 +2869,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3730,7 +2893,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3738,10 +2901,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3755,55 +2918,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3938,7 +3101,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>17875456.73</v>
@@ -4058,7 +3221,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4154,7 +3317,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4186,7 +3349,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.4+0.19</f>
@@ -4205,11 +3368,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7455666042054591E-2</v>
+        <v>5.7241760739685919E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4254,13 +3417,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4319,7 +3482,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4330,7 +3493,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4431,7 +3594,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4442,7 +3605,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4602,7 +3765,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4620,7 +3783,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4628,10 +3791,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4641,16 +3804,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4659,10 +3822,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4711,7 +3874,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4732,7 +3895,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4750,7 +3913,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4789,7 +3952,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4807,7 +3970,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4893,8 +4056,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4935,62 +4098,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.98</v>
+        <v>11.02</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13547.57418</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>13596.927820000001</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5013,16 +4176,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5037,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5047,40 +4210,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5093,29 +4256,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5125,12 +4288,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5138,9 +4301,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5148,59 +4311,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.6223905170283478</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.25619685036829964</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>5.5277235668845723E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.11588490903646796</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5209,30 +4372,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.444462170318046</v>
+        <v>12.490965569391717</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5241,18 +4404,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.11437878179622009</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7455666042054591E-2</v>
+        <v>5.7241760739685919E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5262,62 +4425,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3209586972656204</v>
+        <v>5.3150819671414871</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.5743446526100051</v>
+        <v>9.56377027253302</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2599514085477885</v>
-      </c>
-      <c r="G29" s="278">
+        <v>6.2530376084017494</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3255170892260928</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>8.3163219761156704</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5327,7 +4490,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5338,14 +4501,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5355,7 +4518,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5365,14 +4528,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5382,7 +4545,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5397,14 +4560,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6348,7 +5511,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6362,7 +5524,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6389,16 +5551,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6416,7 +5578,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6449,7 +5611,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6816,7 +5978,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6867,7 +6029,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6918,7 +6080,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6969,7 +6131,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7071,7 +6233,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7224,7 +6386,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7734,7 +6896,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8244,7 +7406,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8295,7 +7457,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8364,7 +7526,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8568,7 +7730,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8670,7 +7832,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8688,14 +7850,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8739,7 +7901,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8790,7 +7952,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8841,7 +8003,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8892,7 +8054,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8909,7 +8071,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9109,7 +8271,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9159,7 +8321,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9209,7 +8371,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10713,7 +9875,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10871,7 +10033,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11283,7 +10445,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11751,7 +10913,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11765,11 +10927,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11780,11 +10942,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11796,11 +10958,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11817,7 +10979,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11894,7 +11056,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11940,7 +11102,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11975,7 +11137,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12014,19 +11176,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12036,18 +11198,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12124,7 +11286,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12154,7 +11316,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12184,7 +11346,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12247,7 +11409,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12277,7 +11439,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12358,7 +11520,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12389,7 +11551,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12410,28 +11572,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0357028396546834E-2</v>
+        <v>8.005786217603815E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0357028396546834E-2</v>
+        <v>8.005786217603815E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0357028396546834E-2</v>
+        <v>8.005786217603815E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12461,21 +11623,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7455666042054591E-2</v>
+        <v>5.7241760739685919E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7455666042054591E-2</v>
+        <v>5.7241760739685919E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7455666042054591E-2</v>
+        <v>5.7241760739685919E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12497,24 +11659,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12531,24 +11693,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.600937046958816</v>
+        <v>19.571982283757418</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.600937046958816</v>
+        <v>19.571982283757418</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12559,18 +11721,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.590998258983339</v>
+        <v>12.577092137366664</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.590998258983339</v>
+        <v>12.577092137366664</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12589,14 +11751,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12613,21 +11775,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12023940808.353672</v>
+        <v>12006178884.114059</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7451298897942866</v>
+        <v>9.7307342551544806</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7451298897942866</v>
+        <v>9.7307342551544806</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.960682941312477</v>
+        <v>12.941537249216479</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12676,27 +11838,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12023940808.353672</v>
+        <v>12006178884.114059</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2833604063251443</v>
+        <v>8.2711241168813086</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7451298897942866</v>
+        <v>9.7307342551544806</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7451298897942866</v>
+        <v>9.7307342551544806</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7451298897942866</v>
+        <v>9.7307342551544806</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.960682941312477</v>
+        <v>12.941537249216479</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12706,21 +11868,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12733,31 +11895,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7723784705.874012</v>
+        <v>7715254175.788023</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3209586972656204</v>
+        <v>5.3150819671414871</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2599514085477885</v>
+        <v>6.2530376084017494</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2599514085477885</v>
+        <v>6.2530376084017494</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2599514085477885</v>
+        <v>6.2530376084017494</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3255170892260928</v>
+        <v>8.3163219761156704</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12767,21 +11929,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12794,31 +11956,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9873862757.1138439</v>
+        <v>9860716529.9510403</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8021595517953823</v>
+        <v>6.7931030420113974</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0025406491710385</v>
+        <v>7.991885931778115</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0025406491710385</v>
+        <v>7.991885931778115</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0025406491710385</v>
+        <v>7.991885931778115</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.643100015269285</v>
+        <v>10.628929612666074</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12827,7 +11989,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A16B603-A55F-49AD-8F7B-D9FA5381E467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6A7A6C-8BE5-4A91-BD33-8116CCD3790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,6 +963,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2402,7 +2406,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2499,12 +2503,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2793,7 +2813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2807,28 +2827,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45604</v>
@@ -2844,24 +2864,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>1233841000</v>
@@ -2869,10 +2889,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2893,7 +2913,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2901,10 +2921,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2918,61 +2938,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3101,7 +3121,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>17875456.73</v>
@@ -3187,9 +3207,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3205,7 +3225,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3221,7 +3241,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3236,10 +3256,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3251,9 +3272,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3300,10 +3321,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3317,9 +3339,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3333,7 +3355,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3349,7 +3371,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.4+0.19</f>
@@ -3368,11 +3390,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7241760739685919E-2</v>
+        <v>5.6928236777171334E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3417,13 +3439,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3441,7 +3463,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3451,7 +3473,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3482,7 +3504,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3493,7 +3515,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3527,7 +3549,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3594,7 +3616,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3605,7 +3627,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3652,7 +3674,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3765,7 +3787,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3783,7 +3805,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3791,10 +3813,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3802,7 +3824,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3810,10 +3832,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3835,7 +3857,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3874,7 +3896,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3895,7 +3917,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3913,7 +3935,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3952,7 +3974,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3970,7 +3992,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3993,28 +4015,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4056,8 +4083,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4098,7 +4125,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4110,15 +4137,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>11.02</v>
+        <v>11.08</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4138,7 +4165,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4151,7 +4178,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13596.927820000001</v>
+        <v>13670.958280000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4185,7 +4212,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4200,7 +4227,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4210,40 +4237,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4256,29 +4283,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4288,12 +4315,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4303,7 +4330,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4311,21 +4338,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4333,10 +4360,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4344,58 +4371,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.11588490903646796</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.490965569391717</v>
+        <v>12.559757740775451</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4404,18 +4431,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7241760739685919E-2</v>
+        <v>5.6928236777171334E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4425,40 +4452,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3150819671414871</v>
+        <v>5.3068747474756561</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.56377027253302</v>
+        <v>9.5490024921026411</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2530376084017494</v>
+        <v>6.2433820558537132</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3163219761156704</v>
+        <v>8.3034804279153409</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4466,21 +4493,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4490,25 +4517,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4518,7 +4545,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4528,14 +4555,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4545,7 +4572,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4560,14 +4587,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5467,27 +5494,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5519,12 +5546,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5551,16 +5578,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5578,7 +5605,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5611,7 +5638,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5622,7 +5649,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5978,7 +6005,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6029,7 +6056,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6080,7 +6107,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6131,7 +6158,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6233,7 +6260,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6386,7 +6413,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6641,7 +6668,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6692,7 +6719,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6746,15 +6773,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6794,50 +6821,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6845,50 +6872,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6896,101 +6923,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6998,101 +7025,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7100,50 +7127,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7151,50 +7178,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7202,50 +7229,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7253,272 +7280,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.6223905170283478</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.63641092007768485</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.25619685036829964</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.24039714954577368</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.6223905170283478</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.63641092007768485</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7526,50 +7553,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.25619685036829964</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.24039714954577368</v>
+        <f t="shared" si="37"/>
+        <v>1.9192686125909793E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7577,50 +7604,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>5.5277235668845723E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7628,50 +7655,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>1.5061272402478966E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.9192686125909793E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7679,221 +7706,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>5.5277235668845723E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.11437878179622006</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.12127266176395049</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.11437878179622006</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.12127266176395049</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7901,522 +7928,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.316789020302077E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.5826061576241422E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.316789020302077E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.5826061576241422E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8976,12 +8907,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9663,27 +9590,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9875,7 +9805,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9922,7 +9852,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9950,7 +9880,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10033,7 +9963,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10055,7 +9985,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10123,7 +10053,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10445,7 +10375,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10582,7 +10512,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10913,7 +10843,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10979,7 +10909,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11014,7 +10944,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11035,7 +10965,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11056,7 +10986,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11071,7 +11001,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11102,7 +11032,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11116,7 +11046,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11137,7 +11067,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11152,7 +11082,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11174,7 +11104,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11182,11 +11112,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11214,7 +11144,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11286,7 +11216,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11316,7 +11246,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11346,7 +11276,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11404,12 +11334,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11439,7 +11369,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11469,7 +11399,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11520,7 +11450,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11551,7 +11481,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11572,28 +11502,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.005786217603815E-2</v>
+        <v>7.9619370105641782E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.005786217603815E-2</v>
+        <v>7.9619370105641782E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.005786217603815E-2</v>
+        <v>7.9619370105641782E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11623,21 +11553,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7241760739685919E-2</v>
+        <v>5.6928236777171334E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7241760739685919E-2</v>
+        <v>5.6928236777171334E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7241760739685919E-2</v>
+        <v>5.6928236777171334E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11654,27 +11584,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11693,24 +11623,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.571982283757418</v>
+        <v>19.531066318122459</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.571982283757418</v>
+        <v>19.531066318122459</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11721,18 +11651,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.577092137366664</v>
+        <v>12.557671372349889</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.577092137366664</v>
+        <v>12.557671372349889</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11751,14 +11681,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11771,31 +11701,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12006178884.114059</v>
+        <v>11981079515.255688</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7307342551544806</v>
+        <v>9.7103917889385158</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7307342551544806</v>
+        <v>9.7103917889385158</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.941537249216479</v>
+        <v>12.914482478489862</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11813,7 +11743,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11838,27 +11768,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12006178884.114059</v>
+        <v>11981079515.255688</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2711241168813086</v>
+        <v>8.2538330205977388</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7307342551544806</v>
+        <v>9.7103917889385158</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7307342551544806</v>
+        <v>9.7103917889385158</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7307342551544806</v>
+        <v>9.7103917889385158</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.941537249216479</v>
+        <v>12.914482478489862</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11868,21 +11798,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11895,31 +11825,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7715254175.788023</v>
+        <v>7703340759.1766014</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3150819671414871</v>
+        <v>5.3068747474756561</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2530376084017494</v>
+        <v>6.2433820558537132</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2530376084017494</v>
+        <v>6.2433820558537132</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2530376084017494</v>
+        <v>6.2433820558537132</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3163219761156704</v>
+        <v>8.3034804279153409</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11929,21 +11859,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11956,31 +11886,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9860716529.9510403</v>
+        <v>9842210137.2161446</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.7931030420113974</v>
+        <v>6.7803538840366979</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.991885931778115</v>
+        <v>7.9768869223961145</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.991885931778115</v>
+        <v>7.9768869223961145</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.991885931778115</v>
+        <v>7.9768869223961145</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.628929612666074</v>
+        <v>10.608981453202603</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11989,7 +11919,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6A7A6C-8BE5-4A91-BD33-8116CCD3790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8234EBDA-EBC4-454B-9C3B-40E55F919FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -975,6 +967,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1917,7 +1925,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2153,12 +2160,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2360,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2596,8 +2604,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2813,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,162 +2839,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>265</v>
+      <c r="C4" s="187" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>266</v>
+      <c r="C5" s="190" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45604</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1233841000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>269</v>
+      <c r="C11" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>242</v>
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>270</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>271</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>272</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3043,408 +3051,412 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>11868490425.190001</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>10930302487.299999</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>7386835892.0799999</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>6956163862.6700001</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>3020689977.3999996</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>2613446855.2799997</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>19979888.16</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>14166706.34</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>17875456.73</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>20978186.489999998</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>49204300.670000002</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-5437935.0599999996</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.4+0.19</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6928236777171334E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>5.7400515966872852E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3515,7 +3527,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3543,7 +3555,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3555,7 +3567,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3574,8 +3586,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3627,7 +3639,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3643,7 +3655,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3655,7 +3667,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3668,7 +3680,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3716,14 +3728,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3747,7 +3759,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3777,19 +3789,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>266</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3805,20 +3817,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3848,10 +3860,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3863,12 +3875,12 @@
         <f>C25</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>11868490425.190001</v>
       </c>
@@ -3881,75 +3893,75 @@
         <f>C26</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>7386835892.0799999</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>3040669865.5599995</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>17875456.73</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>17875456.73</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3962,12 +3974,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3980,12 +3992,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>65605734.226666667</v>
       </c>
@@ -3994,16 +4006,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.59000000000000008</v>
       </c>
@@ -4084,7 +4096,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4136,11 +4148,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>11.08</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>274</v>
+      <c r="G3" s="131">
+        <v>10.98</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4178,7 +4190,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13670.958280000001</v>
+        <v>13547.57418</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4188,11 +4200,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4214,11 +4226,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0012</v>
       </c>
@@ -4226,8 +4238,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4236,10 +4248,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4247,7 +4259,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4255,13 +4267,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4270,12 +4282,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4285,7 +4297,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4296,7 +4308,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4304,13 +4316,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4320,49 +4332,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4370,79 +4382,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.11588490903646796</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.559757740775451</v>
+        <v>12.456418735737865</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.71500486253077544</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6928236777171334E-2</v>
+        <v>5.7400515966872852E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4459,10 +4471,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4470,22 +4482,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3068747474756561</v>
-      </c>
-      <c r="D29" s="129">
+        <v>5.3144652007194679</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>9.5490024921026411</v>
+        <v>9.5626604848743426</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2433820558537132</v>
+        <v>6.252312000846433</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3034804279153409</v>
+        <v>8.3153569433689949</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4493,23 +4505,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4517,9 +4529,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4527,17 +4539,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4545,26 +4557,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4572,9 +4584,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4587,16 +4599,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5548,10 +5560,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5577,16 +5589,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5600,11 +5612,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5629,7 +5641,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1</v>
       </c>
@@ -5637,7 +5649,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5701,47 +5713,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>10930302487.299999</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5803,47 +5815,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6956163862.6700001</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5854,47 +5866,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>3974138624.6299992</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5905,47 +5917,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3020689977.3999996</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2613446855.2799997</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5956,47 +5968,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>19979888.16</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>14166706.34</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6005,49 +6017,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6055,50 +6067,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.11588490903646796</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.12319193037654147</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6106,50 +6118,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1375378933.3233342</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1346525063.0099995</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6157,50 +6169,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>2.1428394543830654E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6211,47 +6223,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6260,49 +6272,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>17875456.73</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>20978186.489999998</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6313,47 +6325,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6364,47 +6376,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6413,49 +6425,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6466,47 +6478,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6517,47 +6529,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1357503476.5933342</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1325546876.5199995</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6568,47 +6580,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.5784086347165056E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>9.0954496322962861E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6619,7 +6631,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1018127607.4450006</v>
       </c>
@@ -6667,50 +6679,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>2.4108238372701971E-2</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6827,43 +6839,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6878,43 +6890,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6923,49 +6935,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6980,43 +6992,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7031,43 +7043,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7133,43 +7145,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7184,43 +7196,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7235,43 +7247,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7333,47 +7345,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7382,7 +7394,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7402,47 +7414,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.63641092007768485</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7451,49 +7463,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.24039714954577368</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7504,47 +7516,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7555,47 +7567,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.9192686125909793E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7606,47 +7618,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7655,49 +7667,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7708,47 +7720,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.11437878179622006</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.12127266176395049</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7757,9 +7769,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7774,50 +7788,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7826,49 +7840,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="153">
+        <v>253</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7877,49 +7891,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="153">
+        <v>254</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7928,49 +7942,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>244</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7979,7 +7993,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7996,49 +8010,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8048,47 +8062,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8098,47 +8112,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.316789020302077E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>1.5826061576241422E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8148,47 +8162,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8196,149 +8210,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>249</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9634,8 +9648,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9671,8 +9685,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9684,8 +9698,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9695,8 +9709,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9783,11 +9797,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9830,7 +9844,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9858,7 +9872,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9886,7 +9900,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9914,7 +9928,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9927,7 +9941,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9942,7 +9956,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9969,7 +9983,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9991,7 +10005,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10013,7 +10027,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10034,7 +10048,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10042,7 +10056,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10059,7 +10073,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10067,7 +10081,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10086,7 +10100,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10107,7 +10121,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10272,7 +10286,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10301,7 +10315,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10327,7 +10341,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10354,7 +10368,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10381,7 +10395,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10397,7 +10411,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10411,7 +10425,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10438,7 +10452,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10446,7 +10460,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10464,7 +10478,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10472,7 +10486,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10491,7 +10505,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10499,7 +10513,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10518,7 +10532,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10539,7 +10553,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10560,7 +10574,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10581,7 +10595,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10602,7 +10616,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10748,8 +10762,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10775,8 +10789,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10846,7 +10860,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10946,7 +10960,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10954,7 +10968,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10985,11 +10999,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11066,12 +11080,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11150,17 +11164,17 @@
         <f>Data!C6</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11171,23 +11185,23 @@
         <f>Data!C8</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.6223905170283478</v>
       </c>
@@ -11197,48 +11211,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.25619685036829964</v>
       </c>
@@ -11252,54 +11266,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>5.5277235668845723E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.11588490903646799</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.11588490903646799</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.11588490903646799</v>
       </c>
@@ -11313,55 +11327,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>17875456.73</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>17875456.73</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>17875456.73</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>1.5061272402478966E-3</v>
       </c>
@@ -11369,29 +11383,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11401,27 +11415,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.11437878179622009</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.11437878179622009</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.11437878179622009</v>
       </c>
@@ -11431,49 +11445,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>8.578408634716507E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>8.578408634716507E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>8.578408634716507E-2</v>
       </c>
@@ -11483,69 +11497,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9619370105641782E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>8.0279895948822594E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9619370105641782E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.0279895948822594E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9619370105641782E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>8.0279895948822594E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.71500486253077544</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.71500486253077544</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.71500486253077544</v>
       </c>
@@ -11553,23 +11567,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6928236777171334E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>5.7400515966872852E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6928236777171334E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>5.7400515966872852E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6928236777171334E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>5.7400515966872852E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11591,7 +11605,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11614,27 +11628,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.531066318122459</v>
+        <v>19.575133297123312</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.531066318122459</v>
+        <v>19.575133297123312</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11642,27 +11656,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.557671372349889</v>
+        <v>12.575632681394975</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.557671372349889</v>
+        <v>12.575632681394975</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11676,25 +11690,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11705,21 +11719,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11981079515.255688</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>12008111832.427044</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7103917889385158</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>9.7323008656926167</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7103917889385158</v>
-      </c>
-      <c r="I97" s="123">
+        <v>9.7323008656926167</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.914482478489862</v>
+        <v>12.943620786604583</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11731,14 +11745,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11749,17 +11763,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11768,27 +11782,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11981079515.255688</v>
+        <v>12008111832.427044</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2538330205977388</v>
+        <v>8.2724557358387241</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7103917889385158</v>
+        <v>9.7323008656926167</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7103917889385158</v>
+        <v>9.7323008656926167</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7103917889385158</v>
+        <v>9.7323008656926167</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.914482478489862</v>
+        <v>12.943620786604583</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11800,25 +11814,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11829,27 +11843,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7703340759.1766014</v>
+        <v>7714358891.4363642</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3068747474756561</v>
-      </c>
-      <c r="E103" s="123">
+        <v>5.3144652007194679</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2433820558537132</v>
+        <v>6.252312000846433</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2433820558537132</v>
-      </c>
-      <c r="H103" s="123">
+        <v>6.252312000846433</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2433820558537132</v>
+        <v>6.252312000846433</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3034804279153409</v>
+        <v>8.3153569433689949</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11861,25 +11875,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11890,27 +11904,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9842210137.2161446</v>
+        <v>9861235361.9317036</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.7803538840366979</v>
-      </c>
-      <c r="E106" s="123">
+        <v>6.793460468279096</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.9768869223961145</v>
+        <v>7.9923064332695244</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.9768869223961145</v>
-      </c>
-      <c r="H106" s="123">
+        <v>7.9923064332695244</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.9768869223961145</v>
-      </c>
-      <c r="I106" s="123">
+        <v>7.9923064332695244</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>10.608981453202603</v>
+        <v>10.62948886498679</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11921,14 +11935,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8234EBDA-EBC4-454B-9C3B-40E55F919FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F42487-3CB3-4114-AE24-57586D06C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3267,9 +3267,7 @@
       <c r="B37" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3333,9 +3331,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3351,9 +3347,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3406,7 +3400,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7400515966872852E-2</v>
+        <v>5.7819999576708601E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4149,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>276</v>
@@ -4190,7 +4184,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13547.57418</v>
+        <v>13448.866900000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4239,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4422,7 +4416,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.456418735737865</v>
+        <v>12.366047522746749</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4454,7 +4448,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7400515966872852E-2</v>
+        <v>5.7819999576708601E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4484,20 +4478,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3144652007194679</v>
+        <v>5.3248489417459606</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>9.5626604848743426</v>
+        <v>9.5813446207655275</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.252312000846433</v>
+        <v>6.2645281667599537</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3153569433689949</v>
+        <v>8.3316040180569804</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11520,17 +11514,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0279895948822594E-2</v>
+        <v>8.0866582322326366E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0279895948822594E-2</v>
+        <v>8.0866582322326366E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0279895948822594E-2</v>
+        <v>8.0866582322326366E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11571,17 +11565,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7400515966872852E-2</v>
+        <v>5.7819999576708601E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7400515966872852E-2</v>
+        <v>5.7819999576708601E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7400515966872852E-2</v>
+        <v>5.7819999576708601E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11641,14 +11635,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.575133297123312</v>
+        <v>19.627733515122642</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.575133297123312</v>
+        <v>19.627733515122642</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11669,14 +11663,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.575632681394975</v>
+        <v>12.600203754508827</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.575632681394975</v>
+        <v>12.600203754508827</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11719,21 +11713,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12008111832.427044</v>
+        <v>12040378754.473434</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7323008656926167</v>
+        <v>9.7584524703535021</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7323008656926167</v>
+        <v>9.7584524703535021</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.943620786604583</v>
+        <v>12.978401508898623</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11782,27 +11776,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12008111832.427044</v>
+        <v>12040378754.473434</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2724557358387241</v>
+        <v>8.2946845998004761</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7323008656926167</v>
+        <v>9.7584524703535021</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7323008656926167</v>
+        <v>9.7584524703535021</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7323008656926167</v>
+        <v>9.7584524703535021</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.943620786604583</v>
+        <v>12.978401508898623</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11843,27 +11837,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7714358891.4363642</v>
+        <v>7729431697.8032684</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3144652007194679</v>
+        <v>5.3248489417459606</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.252312000846433</v>
+        <v>6.2645281667599537</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.252312000846433</v>
+        <v>6.2645281667599537</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.252312000846433</v>
+        <v>6.2645281667599537</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3153569433689949</v>
+        <v>8.3316040180569804</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11904,27 +11898,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9861235361.9317036</v>
+        <v>9884905226.1383514</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.793460468279096</v>
+        <v>6.8097667707732183</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.9923064332695244</v>
+        <v>8.0114903185567279</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.9923064332695244</v>
+        <v>8.0114903185567279</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.9923064332695244</v>
+        <v>8.0114903185567279</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>10.62948886498679</v>
+        <v>10.655002763477802</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F42487-3CB3-4114-AE24-57586D06C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EA44AA-943B-4049-8248-91B2642CC195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +972,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1690,7 +1687,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1838,7 +1835,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,9 +2024,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2366,6 +2359,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2821,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2835,172 +2829,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1233841000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1233841000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3048,800 +3042,801 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>11868490425.190001</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>10930302487.299999</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>7386835892.0799999</v>
+      </c>
+      <c r="D26" s="148">
+        <v>6956163862.6700001</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>3020689977.3999996</v>
+      </c>
+      <c r="D27" s="148">
+        <v>2613446855.2799997</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>7386835892.0799999</v>
-      </c>
-      <c r="D26" s="149">
-        <v>6956163862.6700001</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148">
+        <v>19979888.16</v>
+      </c>
+      <c r="D28" s="148">
+        <v>14166706.34</v>
+      </c>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
+        <v>17875456.73</v>
+      </c>
+      <c r="D29" s="148">
+        <v>20978186.489999998</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>49204300.670000002</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-5437935.0599999996</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>3020689977.3999996</v>
-      </c>
-      <c r="D27" s="149">
-        <v>2613446855.2799997</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>19979888.16</v>
-      </c>
-      <c r="D28" s="149">
-        <v>14166706.34</v>
-      </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
-        <v>17875456.73</v>
-      </c>
-      <c r="D29" s="149">
-        <v>20978186.489999998</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>49204300.670000002</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-5437935.0599999996</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.4+0.19</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7819999576708601E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>5.6971096683511399E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3850,166 +3845,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>11868490425.190001</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>7386835892.0799999</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>3040669865.5599995</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>17875456.73</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>17875456.73</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>65605734.226666667</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.59000000000000008</v>
       </c>
@@ -4022,32 +4017,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4106,13 +4101,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4123,82 +4118,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0811.HK : 新华文轩</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>10.9</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>276</v>
+      <c r="G3" s="130">
+        <v>11.06</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>13448.866900000001</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>13646.28146</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4209,31 +4204,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0012</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4242,280 +4237,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.11588490903646796</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.366047522746749</v>
+        <v>12.550308913707685</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.71500486253077544</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7819999576708601E-2</v>
+        <v>5.6971096683511399E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3248489417459606</v>
-      </c>
-      <c r="D29" s="128">
+        <v>5.3023587173934343</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>9.5813446207655275</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>9.5408765074955895</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2645281667599537</v>
-      </c>
-      <c r="G29" s="286">
+        <v>6.2380690792863938</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3316040180569804</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>8.296414354343991</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4523,9 +4518,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4533,17 +4528,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4551,26 +4546,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4578,9 +4573,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4593,16 +4588,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5554,10 +5549,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5583,59 +5578,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1375378933.3233342</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1</v>
       </c>
@@ -5643,19 +5638,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5704,928 +5699,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>10930302487.299999</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>8.5833666449770085E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6956163862.6700001</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>3974138624.6299992</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3020689977.3999996</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2613446855.2799997</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>19979888.16</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>14166706.34</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.11588490903646796</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.12319193037654147</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1375378933.3233342</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1346525063.0099995</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>2.1428394543830654E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>17875456.73</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>20978186.489999998</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1357503476.5933342</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1325546876.5199995</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.5784086347165056E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>9.0954496322962861E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1018127607.4450006</v>
       </c>
@@ -6669,63 +6664,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>2.4108238372701971E-2</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6771,11 +6766,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6822,266 +6817,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7128,165 +7123,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7332,63 +7327,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7401,372 +7396,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.63641092007768485</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.24039714954577368</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.9192686125909793E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.11437878179622006</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.12127266176395049</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7778,216 +7773,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8003,350 +7998,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.316789020302077E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>1.5826061576241422E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9625,7 +9620,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9643,7 +9638,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9661,25 +9656,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9687,12 +9682,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9700,28 +9695,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9734,7 +9729,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9743,16 +9738,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9760,7 +9755,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9770,287 +9765,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10061,21 +10056,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10088,45 +10083,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10134,17 +10129,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10154,19 +10149,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10176,17 +10171,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10195,7 +10190,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10205,17 +10200,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10228,7 +10223,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10238,17 +10233,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10275,12 +10270,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10290,171 +10285,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10462,25 +10457,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10488,26 +10483,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10515,113 +10510,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10629,17 +10624,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10649,16 +10644,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10668,16 +10663,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10687,14 +10682,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10707,7 +10702,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10717,14 +10712,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10737,13 +10732,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10751,12 +10746,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10767,63 +10762,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10831,45 +10826,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10877,61 +10872,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10945,35 +10940,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10987,29 +10982,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11023,9 +11018,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11033,28 +11028,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11068,29 +11063,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11104,29 +11099,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11136,66 +11131,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>11868490425.190001</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.6223905170283478</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>7386835892.0799999</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.6223905170283478</v>
       </c>
@@ -11203,50 +11198,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>4481654533.1100006</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.25619685036829964</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>3040669865.5599995</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.25619685036829964</v>
       </c>
@@ -11254,60 +11249,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>5.5277235668845723E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>65605734.226666667</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>5.5277235668845723E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.11588490903646799</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.11588490903646799</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1375378933.3233345</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.11588490903646799</v>
       </c>
@@ -11315,61 +11310,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>17875456.73</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>17875456.73</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>17875456.73</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>1.5061272402478966E-3</v>
       </c>
@@ -11377,59 +11372,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.11437878179622009</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.11437878179622009</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>1357503476.5933344</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.11437878179622009</v>
       </c>
@@ -11437,184 +11432,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>8.578408634716507E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>8.578408634716507E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1018127607.4450009</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>8.578408634716507E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.82516921341161531</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0866582322326366E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.9679313622932499E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0866582322326366E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>7.9679313622932499E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0866582322326366E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.9679313622932499E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.71500486253077544</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.71500486253077544</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.71500486253077544</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7819999576708601E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>5.6971096683511399E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7819999576708601E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>5.6971096683511399E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7819999576708601E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>5.6971096683511399E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11622,55 +11617,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.627733515122642</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>19.515906604573164</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.627733515122642</v>
+        <v>19.515906604573164</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.600203754508827</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>12.546985078744191</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.600203754508827</v>
+        <v>12.546985078744191</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11680,123 +11675,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12040378754.473434</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>11971779985.44486</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7584524703535021</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>9.702854732048019</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7584524703535021</v>
-      </c>
-      <c r="I97" s="122">
+        <v>9.702854732048019</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.978401508898623</v>
+        <v>12.904458455642239</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>12040378754.473434</v>
-      </c>
-      <c r="D100" s="109">
+        <v>11971779985.44486</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2946845998004761</v>
-      </c>
-      <c r="E100" s="109">
+        <v>8.2474265222408167</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7584524703535021</v>
-      </c>
-      <c r="F100" s="109">
+        <v>9.702854732048019</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>9.7584524703535021</v>
-      </c>
-      <c r="H100" s="109">
+        <v>9.702854732048019</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7584524703535021</v>
-      </c>
-      <c r="I100" s="109">
+        <v>9.702854732048019</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.978401508898623</v>
+        <v>12.904458455642239</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11806,58 +11801,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7729431697.8032684</v>
-      </c>
-      <c r="D103" s="109">
+        <v>7696785390.8558035</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3248489417459606</v>
-      </c>
-      <c r="E103" s="122">
+        <v>5.3023587173934343</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2645281667599537</v>
-      </c>
-      <c r="F103" s="109">
+        <v>6.2380690792863938</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.2645281667599537</v>
-      </c>
-      <c r="H103" s="122">
+        <v>6.2380690792863938</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2645281667599537</v>
-      </c>
-      <c r="I103" s="109">
+        <v>6.2380690792863938</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3316040180569804</v>
+        <v>8.296414354343991</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11867,58 +11862,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9884905226.1383514</v>
-      </c>
-      <c r="D106" s="109">
+        <v>9834282688.1503315</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.8097667707732183</v>
-      </c>
-      <c r="E106" s="122">
+        <v>6.7748926198171251</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>8.0114903185567279</v>
-      </c>
-      <c r="F106" s="109">
+        <v>7.9704619056672064</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.0114903185567279</v>
-      </c>
-      <c r="H106" s="122">
+        <v>7.9704619056672064</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>8.0114903185567279</v>
-      </c>
-      <c r="I106" s="122">
+        <v>7.9704619056672064</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.655002763477802</v>
+        <v>10.600436404993115</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11927,15 +11922,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EA44AA-943B-4049-8248-91B2642CC195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65430150-5840-45E5-9E4E-AA19CAE92CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="278">
   <si>
     <t>Company Info:</t>
   </si>
@@ -980,6 +980,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1695,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2339,9 +2347,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2350,9 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2360,6 +2362,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2837,7 +2851,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2845,7 +2859,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2878,7 +2892,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2894,7 +2908,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2937,13 +2951,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2961,7 +2978,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2970,7 +2987,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2979,7 +2996,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2988,7 +3005,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3394,7 +3411,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6971096683511399E-2</v>
+        <v>5.6227475369260441E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3817,7 +3834,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3827,11 +3844,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3845,10 +3862,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4070,8 +4087,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4084,8 +4104,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4128,60 +4148,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>11.06</v>
+        <v>11.2</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>13646.28146</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>13819.019200000001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4204,11 +4224,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4228,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4349,7 +4369,7 @@
         <v>248</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4361,20 +4381,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>253</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.11588490903646796</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4383,12 +4403,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.11588490903646796</v>
+      <c r="B23" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4399,10 +4419,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.5061272402478966E-3</v>
       </c>
@@ -4411,7 +4431,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.550308913707685</v>
+        <v>12.716289640165288</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4443,7 +4463,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6971096683511399E-2</v>
+        <v>5.6227475369260441E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4462,10 +4482,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4473,22 +4493,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3023587173934343</v>
+        <v>5.2807760543466618</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>9.5408765074955895</v>
+        <v>9.502041427900414</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2380690792863938</v>
-      </c>
-      <c r="G29" s="285">
+        <v>6.2126777109960729</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.296414354343991</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>8.2626447199134034</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5519,7 +5539,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7760,7 +7780,7 @@
       <c r="B47" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="36"/>
@@ -9687,7 +9707,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10734,7 +10754,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10751,7 +10771,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10860,11 +10880,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10875,11 +10895,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10891,11 +10911,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11109,19 +11129,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11131,18 +11151,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11509,17 +11529,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9679313622932499E-2</v>
+        <v>7.8639290885717986E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9679313622932499E-2</v>
+        <v>7.8639290885717986E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9679313622932499E-2</v>
+        <v>7.8639290885717986E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11560,17 +11580,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6971096683511399E-2</v>
+        <v>5.6227475369260441E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6971096683511399E-2</v>
+        <v>5.6227475369260441E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6971096683511399E-2</v>
+        <v>5.6227475369260441E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11601,15 +11621,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11630,14 +11650,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.515906604573164</v>
+        <v>19.411223440613853</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.515906604573164</v>
+        <v>19.411223440613853</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11658,14 +11678,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.546985078744191</v>
+        <v>12.495913967632996</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.546985078744191</v>
+        <v>12.495913967632996</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11708,21 +11728,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11971779985.44486</v>
+        <v>11907563455.180904</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.702854732048019</v>
+        <v>9.6508086983500334</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.702854732048019</v>
+        <v>9.6508086983500334</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.904458455642239</v>
+        <v>12.835239045666093</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11771,27 +11791,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>11971779985.44486</v>
+        <v>11907563455.180904</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2474265222408167</v>
+        <v>8.2031873935975277</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.702854732048019</v>
+        <v>9.6508086983500334</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>9.702854732048019</v>
+        <v>9.6508086983500334</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.702854732048019</v>
+        <v>9.6508086983500334</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.904458455642239</v>
+        <v>12.835239045666093</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11832,27 +11852,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7696785390.8558035</v>
+        <v>7665456479.6131058</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3023587173934343</v>
+        <v>5.2807760543466618</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2380690792863938</v>
+        <v>6.2126777109960729</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.2380690792863938</v>
+        <v>6.2126777109960729</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2380690792863938</v>
+        <v>6.2126777109960729</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.296414354343991</v>
+        <v>8.2626447199134034</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11893,27 +11913,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9834282688.1503315</v>
+        <v>9786509967.3970032</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.7748926198171251</v>
+        <v>6.7419817239720947</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.9704619056672064</v>
+        <v>7.9317432046730527</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.9704619056672064</v>
+        <v>7.9317432046730527</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.9704619056672064</v>
+        <v>7.9317432046730527</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.600436404993115</v>
+        <v>10.548941882789748</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65430150-5840-45E5-9E4E-AA19CAE92CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0656EA67-9D8A-4DD4-9160-9D8FAB931C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6227475369260441E-2</v>
+        <v>5.534736840098118E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>11.2</v>
+        <v>11.36</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>277</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>13819.019200000001</v>
+        <v>14016.43376</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4248,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.716289640165288</v>
+        <v>12.918497901304011</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6227475369260441E-2</v>
+        <v>5.534736840098118E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4493,20 +4493,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.2807760543466618</v>
+        <v>5.2504473357840844</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>9.502041427900414</v>
+        <v>9.4474690057278181</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2126777109960729</v>
+        <v>6.1769968656283352</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.2626447199134034</v>
+        <v>8.2151904397633206</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9658,7 +9658,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11529,17 +11529,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8639290885717986E-2</v>
+        <v>7.7408380420068701E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8639290885717986E-2</v>
+        <v>7.7408380420068701E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8639290885717986E-2</v>
+        <v>7.7408380420068701E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11580,17 +11580,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6227475369260441E-2</v>
+        <v>5.534736840098118E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6227475369260441E-2</v>
+        <v>5.534736840098118E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6227475369260441E-2</v>
+        <v>5.534736840098118E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11650,14 +11650,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.411223440613853</v>
+        <v>19.270020482783927</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.411223440613853</v>
+        <v>19.270020482783927</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11678,14 +11678,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.495913967632996</v>
+        <v>12.424147042846521</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.495913967632996</v>
+        <v>12.424147042846521</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11728,21 +11728,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11907563455.180904</v>
+        <v>11820944330.654156</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6508086983500334</v>
+        <v>9.580605872761689</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.6508086983500334</v>
+        <v>9.580605872761689</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.835239045666093</v>
+        <v>12.741871735602052</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11769,7 +11769,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11791,27 +11791,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>11907563455.180904</v>
+        <v>11820944330.654156</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2031873935975277</v>
+        <v>8.1435149918474359</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.6508086983500334</v>
+        <v>9.580605872761689</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>9.6508086983500334</v>
+        <v>9.580605872761689</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.6508086983500334</v>
+        <v>9.580605872761689</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.835239045666093</v>
+        <v>12.741871735602052</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11852,27 +11852,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7665456479.6131058</v>
+        <v>7621431989.6837311</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2807760543466618</v>
+        <v>5.2504473357840844</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2126777109960729</v>
+        <v>6.1769968656283352</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.2126777109960729</v>
+        <v>6.1769968656283352</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2126777109960729</v>
+        <v>6.1769968656283352</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2626447199134034</v>
+        <v>8.2151904397633206</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11913,27 +11913,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9786509967.3970032</v>
+        <v>9721188160.1689415</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.7419817239720947</v>
+        <v>6.6969811638157601</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.9317432046730527</v>
+        <v>7.8788013691950116</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.9317432046730527</v>
+        <v>7.8788013691950116</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.9317432046730527</v>
+        <v>7.8788013691950116</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.548941882789748</v>
+        <v>10.478531087682686</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF2036C-B254-4710-B1DA-628AE274BA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1637E6-54E7-4D92-B6FC-BFC821A49B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.3649810100892342E-2</v>
+        <v>5.3830483560905661E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>11.7</v>
+        <v>11.66</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>14435.939700000001</v>
+        <v>14386.58606</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4461,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4592,7 +4592,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.327258031037895</v>
+        <v>13.28252720824613</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.3649810100892342E-2</v>
+        <v>5.3830483560905661E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4711,20 +4711,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.1941604733535192</v>
+        <v>5.2038462652745761</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.9441008434516345</v>
+        <v>9.3636166897029067</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.2872476157100232</v>
+        <v>6.1221720767936194</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.6470442116970734</v>
+        <v>8.1422753823503538</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11761,17 +11761,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5034189153620104E-2</v>
+        <v>7.5286877589015949E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5034189153620104E-2</v>
+        <v>7.5286877589015949E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5034189153620104E-2</v>
+        <v>7.5286877589015949E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11812,17 +11812,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3649810100892342E-2</v>
+        <v>5.3830483560905661E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3649810100892342E-2</v>
+        <v>5.3830483560905661E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3649810100892342E-2</v>
+        <v>5.3830483560905661E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11875,21 +11875,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.463645331496362</v>
+        <v>19.048188620753205</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.463645331496362</v>
+        <v>19.048188620753205</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11910,14 +11910,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.082992717542979</v>
+        <v>12.313874809770644</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.082992717542979</v>
+        <v>12.313874809770644</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11960,21 +11960,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13356469545.136063</v>
+        <v>11684864449.77529</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.825114050461982</v>
+        <v>9.470316231812113</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.825114050461982</v>
+        <v>9.470316231812113</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.845074673901779</v>
+        <v>12.595190358932498</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12024,23 +12024,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.201346942892684</v>
+        <v>8.0497687970402954</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.825114050461982</v>
+        <v>9.470316231812113</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>10.825114050461982</v>
+        <v>9.470316231812113</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.825114050461982</v>
+        <v>9.470316231812113</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.845074673901779</v>
+        <v>12.595190358932498</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12079,23 +12079,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1941604733535192</v>
+        <v>5.2038462652745761</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2872476157100232</v>
+        <v>6.1221720767936194</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>7.2872476157100232</v>
+        <v>6.1221720767936194</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2872476157100232</v>
+        <v>6.1221720767936194</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.6470442116970734</v>
+        <v>8.1422753823503538</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12134,23 +12134,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>7.697753708123102</v>
+        <v>6.6268075311574357</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>9.0561808330860032</v>
+        <v>7.7962441543028662</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>9.0561808330860032</v>
+        <v>7.7962441543028662</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>9.0561808330860032</v>
+        <v>7.7962441543028662</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>10.746059442799426</v>
+        <v>10.368732870641427</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1637E6-54E7-4D92-B6FC-BFC821A49B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7A43D9-742C-4411-9470-5E3D93C8C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2591,6 +2591,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2607,9 +2610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2823,11 +2823,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3042,7 +3042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3067,6 +3067,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3624,7 +3625,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.3830483560905661E-2</v>
+        <v>5.3738308075356171E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4276,7 +4277,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4299,6 +4300,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4317,8 +4321,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4354,24 +4358,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>11.66</v>
+        <v>11.68</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4381,7 +4388,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
@@ -4410,11 +4417,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>14386.58606</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>14411.26288</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4437,11 +4444,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4509,10 +4516,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4559,7 +4566,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4649,7 +4656,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.28252720824613</v>
+        <v>13.305310273783428</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4681,7 +4688,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.3830483560905661E-2</v>
+        <v>5.3738308075356171E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4700,10 +4707,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4711,22 +4718,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.2038462652745761</v>
+        <v>5.6959350073671242</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.3636166897029067</v>
+        <v>10.524689340026717</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.1221720767936194</v>
-      </c>
-      <c r="G29" s="312">
+        <v>6.701100008667205</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.1422753823503538</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>9.1519037739362759</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5708,15 +5715,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5744,7 +5752,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11761,17 +11769,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5286877589015949E-2</v>
+        <v>7.5157961702733381E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5286877589015949E-2</v>
+        <v>7.5157961702733381E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5286877589015949E-2</v>
+        <v>7.5157961702733381E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11812,17 +11820,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3830483560905661E-2</v>
+        <v>5.3738308075356171E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3830483560905661E-2</v>
+        <v>5.3738308075356171E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3830483560905661E-2</v>
+        <v>5.3738308075356171E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11871,7 +11879,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11882,14 +11890,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.048188620753205</v>
+        <v>20.846053017697084</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.048188620753205</v>
+        <v>20.846053017697084</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11910,14 +11918,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.313874809770644</v>
+        <v>13.47830566658909</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.313874809770644</v>
+        <v>13.47830566658909</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11960,21 +11968,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11684864449.77529</v>
+        <v>12787741064.220297</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.470316231812113</v>
+        <v>10.364172583193699</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.470316231812113</v>
+        <v>10.364172583193699</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.595190358932498</v>
+        <v>14.154677598480223</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12024,23 +12032,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.0497687970402954</v>
+        <v>8.8095466957146442</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.470316231812113</v>
+        <v>10.364172583193699</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>9.470316231812113</v>
+        <v>10.364172583193699</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.470316231812113</v>
+        <v>10.364172583193699</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.595190358932498</v>
+        <v>14.154677598480223</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12079,23 +12087,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2038462652745761</v>
+        <v>5.6959350073671242</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.1221720767936194</v>
+        <v>6.701100008667205</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.1221720767936194</v>
+        <v>6.701100008667205</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.1221720767936194</v>
+        <v>6.701100008667205</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.1422753823503538</v>
+        <v>9.1519037739362759</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12134,23 +12142,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.6268075311574357</v>
+        <v>7.2527408515408842</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.7962441543028662</v>
+        <v>8.5326362959304518</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.7962441543028662</v>
+        <v>8.5326362959304518</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.7962441543028662</v>
+        <v>8.5326362959304518</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>10.368732870641427</v>
+        <v>11.653290686208249</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7A43D9-742C-4411-9470-5E3D93C8C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FF53D8-17D4-42CF-961B-BD137C605160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2591,31 +2591,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4358,21 +4358,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4388,40 +4388,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>14411.26288</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4444,11 +4444,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4599,7 +4599,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4707,10 +4707,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4718,22 +4718,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.6959350073671242</v>
+        <v>6.2162732514074639</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.524689340026717</v>
+        <v>10.791983877543176</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.701100008667205</v>
-      </c>
-      <c r="G29" s="313">
+        <v>7.3132626487146632</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1519037739362759</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>9.384333806559285</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5716,15 +5716,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11097,7 +11097,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11108,11 +11108,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11124,11 +11124,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11883,21 +11883,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.846053017697084</v>
+        <v>19.388828209654964</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.846053017697084</v>
+        <v>19.388828209654964</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11918,14 +11918,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.47830566658909</v>
+        <v>12.790942080493496</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.47830566658909</v>
+        <v>12.790942080493496</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11968,21 +11968,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12787741064.220297</v>
+        <v>13677899199.633448</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.364172583193699</v>
+        <v>11.085625457115988</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.364172583193699</v>
+        <v>11.085625457115988</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.154677598480223</v>
+        <v>14.225006640825585</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12032,23 +12032,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8095466957146442</v>
+        <v>9.4227816385485887</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.364172583193699</v>
+        <v>11.085625457115988</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>10.364172583193699</v>
+        <v>11.085625457115988</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.364172583193699</v>
+        <v>11.085625457115988</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.154677598480223</v>
+        <v>14.225006640825585</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12087,23 +12087,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.6959350073671242</v>
+        <v>6.2162732514074639</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.701100008667205</v>
+        <v>7.3132626487146632</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.701100008667205</v>
+        <v>7.3132626487146632</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.701100008667205</v>
+        <v>7.3132626487146632</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1519037739362759</v>
+        <v>9.384333806559285</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12142,23 +12142,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>7.2527408515408842</v>
+        <v>7.8195274449780268</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>8.5326362959304518</v>
+        <v>9.1994440529153252</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.5326362959304518</v>
+        <v>9.1994440529153252</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.5326362959304518</v>
+        <v>9.1994440529153252</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>11.653290686208249</v>
+        <v>11.804670223692435</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D37FFD-A0A1-44F4-8E23-D832D92EBDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{914A6084-7785-4765-8338-674FE480A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2604,6 +2604,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2620,9 +2623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.3736626013228886E-2</v>
+        <v>5.6373476054695539E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4386,27 +4386,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>11.68</v>
+        <v>11.14</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4416,7 +4416,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
@@ -4445,11 +4445,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>14411.26288</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>13744.988740000001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4472,11 +4472,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4496,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.305726756174746</v>
+        <v>12.68335594273187</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.3736626013228886E-2</v>
+        <v>5.6373476054695539E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4735,10 +4735,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4746,22 +4746,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.267839310463188</v>
+        <v>6.3344114914488161</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.901671918615088</v>
+        <v>11.017461114869763</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.3739286005449269</v>
-      </c>
-      <c r="G29" s="313">
+        <v>7.452248813469196</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.4797147118392076</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>9.5804009694519685</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5744,15 +5744,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11899,17 +11899,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5155609184288513E-2</v>
+        <v>7.8843486259884132E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5155609184288513E-2</v>
+        <v>7.8843486259884132E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5155609184288513E-2</v>
+        <v>7.8843486259884132E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11950,17 +11950,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3736626013228886E-2</v>
+        <v>5.6373476054695539E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3736626013228886E-2</v>
+        <v>5.6373476054695539E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.3736626013228886E-2</v>
+        <v>5.6373476054695539E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12020,14 +12020,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.549618726684795</v>
+        <v>19.830494085343297</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.549618726684795</v>
+        <v>19.830494085343297</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12048,14 +12048,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.897047209406827</v>
+        <v>13.034029751312703</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.897047209406827</v>
+        <v>13.034029751312703</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12098,21 +12098,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13791329287.331877</v>
+        <v>13989473538.333019</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.177557957088375</v>
+        <v>11.338149355008481</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.177557957088375</v>
+        <v>11.338149355008481</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.36955337490191</v>
+        <v>14.57600514843082</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12162,23 +12162,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.5009242635251177</v>
+        <v>9.6374269517572078</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.177557957088375</v>
+        <v>11.338149355008481</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>11.177557957088375</v>
+        <v>11.338149355008481</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.177557957088375</v>
+        <v>11.338149355008481</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.36955337490191</v>
+        <v>14.57600514843082</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12217,23 +12217,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.267839310463188</v>
+        <v>6.3344114914488161</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.3739286005449269</v>
+        <v>7.452248813469196</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>7.3739286005449269</v>
+        <v>7.452248813469196</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3739286005449269</v>
+        <v>7.452248813469196</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.4797147118392076</v>
+        <v>9.5804009694519685</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12272,23 +12272,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.8843817869941528</v>
+        <v>7.9859192216030124</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>9.2757432788166518</v>
+        <v>9.395199084238838</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.2757432788166518</v>
+        <v>9.395199084238838</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>9.2757432788166518</v>
+        <v>9.395199084238838</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>11.92463404337056</v>
+        <v>12.078203058941394</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0811.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0811.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914A6084-7785-4765-8338-674FE480A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C910A2-D1A2-4CF4-9B96-C92FF9161EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,31 +2604,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6373476054695539E-2</v>
+        <v>5.9985914487643871E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4386,27 +4386,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0811.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>11.14</v>
+        <v>10.44</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4416,40 +4416,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>新华文轩</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1233841000</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45604</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>13744.988740000001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>12881.30004</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4472,11 +4472,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4496,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.68335594273187</v>
+        <v>11.919545924036131</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6373476054695539E-2</v>
+        <v>5.9985914487643871E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4735,10 +4735,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4746,22 +4746,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.3344114914488161</v>
+        <v>6.4036335831333044</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>11.017461114869763</v>
+        <v>11.137859308838269</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.452248813469196</v>
-      </c>
-      <c r="G29" s="314">
+        <v>7.533686568392123</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.5804009694519685</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>9.6850950511637137</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5744,15 +5744,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11227,7 +11227,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11238,11 +11238,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11254,11 +11254,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11899,17 +11899,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8843486259884132E-2</v>
+        <v>8.3895813344992395E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8843486259884132E-2</v>
+        <v>8.3895813344992395E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8843486259884132E-2</v>
+        <v>8.3895813344992395E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11950,17 +11950,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6373476054695539E-2</v>
+        <v>5.9985914487643871E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6373476054695539E-2</v>
+        <v>5.9985914487643871E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6373476054695539E-2</v>
+        <v>5.9985914487643871E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12020,14 +12020,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.830494085343297</v>
+        <v>20.148359544918531</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.830494085343297</v>
+        <v>20.148359544918531</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12048,14 +12048,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.034029751312703</v>
+        <v>13.176464893658871</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.034029751312703</v>
+        <v>13.176464893658871</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12098,21 +12098,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13989473538.333019</v>
+        <v>14213712552.063112</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.338149355008481</v>
+        <v>11.519889963182543</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.338149355008481</v>
+        <v>11.519889963182543</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.57600514843082</v>
+        <v>14.809645750391482</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12162,23 +12162,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.6374269517572078</v>
+        <v>9.7919064687051609</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.338149355008481</v>
+        <v>11.519889963182543</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>11.338149355008481</v>
+        <v>11.519889963182543</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.338149355008481</v>
+        <v>11.519889963182543</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.57600514843082</v>
+        <v>14.809645750391482</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12217,23 +12217,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.3344114914488161</v>
+        <v>6.4036335831333044</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.452248813469196</v>
+        <v>7.533686568392123</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>7.452248813469196</v>
+        <v>7.533686568392123</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.452248813469196</v>
+        <v>7.533686568392123</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.5804009694519685</v>
+        <v>9.6850950511637137</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12272,23 +12272,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.9859192216030124</v>
+        <v>8.0977700259192318</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>9.395199084238838</v>
+        <v>9.5267882657873333</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.395199084238838</v>
+        <v>9.5267882657873333</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>9.395199084238838</v>
+        <v>9.5267882657873333</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>12.078203058941394</v>
+        <v>12.247370400777598</v>
       </c>
       <c r="K106" s="75"/>
     </row>
